--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44502</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44179</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43347</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44551</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44302</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43451</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>43536</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44441</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>44455</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44897</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>44105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44130</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44359</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44379</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44579</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44588</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>43486</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>43731</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43873</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44379</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44441</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44502</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>44582</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44588</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>44994</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>45008</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>43879</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
         <v>43889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43915</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44106</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6908,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7022,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,14 +876,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 62040-2021</t>
+          <t>A 49876-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44502</v>
+        <v>44455</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -896,39 +896,136 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6</v>
-      </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>9</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Rynkskinn
+Motaggsvamp
+Orange taggsvamp
+Ullticka
+Blomkålssvamp
+Bronshjon
+Gullgröppa
+Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49876-2021.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49876-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49876-2021.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49876-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49876-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49876-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49876-2021.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 62040-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44502</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blågrå svartspik
@@ -941,91 +1038,91 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62040-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62040-2021.png")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62040-2021.png")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62040-2021.docx")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62040-2021.docx")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62040-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62040-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 66541-2020</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44179</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>8</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1037,91 +1134,91 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 66541-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 66541-2020.png")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 66541-2020.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 66541-2020.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 66541-2020.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 66541-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 66541-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 58505-2022</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44902</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>8</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1133,96 +1230,96 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58505-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58505-2022.png")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58505-2022.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58505-2022.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58505-2022.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58505-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58505-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 40951-2018</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43347</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>20.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>7</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1233,91 +1330,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 40951-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 40951-2018.png")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 40951-2018.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 40951-2018.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 40951-2018.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 40951-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 40951-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 54380-2020</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44126</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bronshjon
@@ -1328,91 +1425,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 54380-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 54380-2020.png")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 54380-2020.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 54380-2020.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 54380-2020.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 54380-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 54380-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 73456-2021</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44551</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>5.9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>7</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Slaguggla
@@ -1423,91 +1520,91 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 73456-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 73456-2021.png")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 73456-2021.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 73456-2021.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 73456-2021.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 73456-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 73456-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 18040-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44302</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>17.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>6</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Kortskaftad ärgspik
@@ -1517,126 +1614,32 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 18040-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 18040-2021.png")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 18040-2021.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 18040-2021.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 18040-2021.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 18040-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 18040-2021.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 49876-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44455</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Motaggsvamp
-Ullticka
-Blomkålssvamp
-Bronshjon
-Gullgröppa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49876-2021.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49876-2021.png")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49876-2021.png")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49876-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49876-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49876-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49876-2021.docx")</f>
         <v/>
       </c>
     </row>
@@ -1650,7 +1653,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,14 +1740,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 70571-2018</t>
+          <t>A 60557-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43451</v>
+        <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,16 +1759,11 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1786,15 +1784,113 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Rynkskinn
+Rosenticka
+Talltita
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 60557-2021.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 60557-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 60557-2021.png")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 60557-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 60557-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 60557-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 60557-2021.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 70571-2018</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>43451</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Rödvingetrast
@@ -1802,92 +1898,92 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 70571-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 70571-2018.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 70571-2018.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 70571-2018.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 70571-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 70571-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 14376-2019</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>43536</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>1.3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>3</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Drillsnäppa
 Svartvit flugsnappare
@@ -1895,87 +1991,87 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 14376-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 14376-2019.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14376-2019.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14376-2019.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14376-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14376-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 45872-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44441</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>4.3</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>4</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Bollvitmossa
@@ -1983,87 +2079,87 @@
 Rödgul trumpetsvamp</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45872-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45872-2021.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45872-2021.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45872-2021.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45872-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45872-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 49872-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>3.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Fjällig taggsvamp s.str.
@@ -2071,91 +2167,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49872-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49872-2021.png")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49872-2021.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49872-2021.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49872-2021.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49872-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49872-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 58719-2021</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44489</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>4</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blomkålssvamp
@@ -2163,91 +2259,91 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58719-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58719-2021.png")</f>
         <v/>
       </c>
-      <c r="U18">
+      <c r="U19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58719-2021.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58719-2021.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58719-2021.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58719-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58719-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 57643-2022</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44897</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>8</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>4</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -2255,1787 +2351,1698 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 57643-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 57643-2022.png")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 57643-2022.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 57643-2022.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 57643-2022.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 57643-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 57643-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 49272-2020</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44105</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>2.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>3</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
 Tallticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49272-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49272-2020.png")</f>
         <v/>
       </c>
-      <c r="U20">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49272-2020.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49272-2020.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49272-2020.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49272-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49272-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 55022-2020</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44130</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>3.2</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
 Ullticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 55022-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 55022-2020.png")</f>
         <v/>
       </c>
-      <c r="U21">
+      <c r="U22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 55022-2020.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 55022-2020.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 55022-2020.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 55022-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 55022-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 29213-2021</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44359</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>1.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bronshjon
 Underviol</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 29213-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 29213-2021.png")</f>
         <v/>
       </c>
-      <c r="U22">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 29213-2021.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 29213-2021.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 29213-2021.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 29213-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 29213-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 34360-2021</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44379</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>3.6</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
 Bronshjon</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 34360-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 34360-2021.png")</f>
         <v/>
       </c>
-      <c r="U23">
+      <c r="U24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 34360-2021.png")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 34360-2021.docx")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 34360-2021.docx")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 34360-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 34360-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 62054-2021</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44502</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Motaggsvamp
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62054-2021.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62054-2021.png")</f>
+        <v/>
+      </c>
+      <c r="U25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62054-2021.png")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62054-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62054-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62054-2021.docx")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62054-2021.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 2409-2022</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44579</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C26" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>3.1</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K26" t="n">
         <v>1</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q26" t="n">
         <v>3</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Vedticka</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 2409-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 2409-2022.png")</f>
         <v/>
       </c>
-      <c r="U24">
+      <c r="U26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 2409-2022.png")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 2409-2022.docx")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 2409-2022.docx")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 2409-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 2409-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 4177-2022</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44588</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C27" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>5.3</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bronshjon
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4177-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4177-2022.png")</f>
         <v/>
       </c>
-      <c r="U25">
+      <c r="U27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 4177-2022.png")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4177-2022.docx")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4177-2022.docx")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4177-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4177-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 4540-2019</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>43486</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="C28" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G28" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>2</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Utter</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4540-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4540-2019.png")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4540-2019.docx")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4540-2019.docx")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4540-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4540-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 49294-2019</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>43731</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C29" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G29" t="n">
         <v>7.7</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Vattenfladdermus</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49294-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49294-2019.png")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49294-2019.docx")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49294-2019.docx")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49294-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49294-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 7808-2020</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>43873</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C30" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>9.1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 7808-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 7808-2020.png")</f>
         <v/>
       </c>
-      <c r="U28">
+      <c r="U30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 7808-2020.png")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 7808-2020.docx")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 7808-2020.docx")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 7808-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 7808-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 28066-2021</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44355</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G31" t="n">
         <v>1.7</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Bronshjon
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 28066-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 28066-2021.png")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 28066-2021.docx")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 28066-2021.docx")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 28066-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 28066-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 34361-2021</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44379</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G32" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K32" t="n">
         <v>1</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Dofttaggsvamp</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 34361-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 34361-2021.png")</f>
         <v/>
       </c>
-      <c r="U30">
+      <c r="U32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 34361-2021.png")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 34361-2021.docx")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 34361-2021.docx")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 34361-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 34361-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 45884-2021</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44441</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="C33" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>0.9</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bollvitmossa</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45884-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45884-2021.png")</f>
         <v/>
       </c>
-      <c r="U31">
+      <c r="U33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 45884-2021.png")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45884-2021.docx")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45884-2021.docx")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45884-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45884-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A 62054-2021</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>44502</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H32" t="n">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A 3152-2022</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K34" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>2</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q34" t="n">
         <v>2</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62054-2021.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62054-2021.png")</f>
-        <v/>
-      </c>
-      <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62054-2021.png")</f>
-        <v/>
-      </c>
-      <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62054-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62054-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62054-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62054-2021.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>A 3152-2022</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 3152-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 3152-2022.png")</f>
         <v/>
       </c>
-      <c r="U33">
+      <c r="U34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 3152-2022.png")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 3152-2022.docx")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 3152-2022.docx")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 3152-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 3152-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 4031-2022</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44588</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="C35" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>4.3</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Stubbspretmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4031-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4031-2022.png")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4031-2022.docx")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4031-2022.docx")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4031-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4031-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 11751-2023</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>44994</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="C36" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>3.7</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11751-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11751-2023.png")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11751-2023.docx")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11751-2023.docx")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11751-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11751-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 13916-2023</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>45008</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="C37" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>3.9</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>2</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q37" t="n">
         <v>2</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Skrovlig flatbagge</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13916-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13916-2023.png")</f>
         <v/>
       </c>
-      <c r="U36">
+      <c r="U37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13916-2023.png")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13916-2023.docx")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13916-2023.docx")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13916-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13916-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 13989-2023</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>45008</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="C38" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>1.2</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>2</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bronshjon</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13989-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13989-2023.png")</f>
         <v/>
       </c>
-      <c r="U37">
+      <c r="U38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13989-2023.png")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13989-2023.docx")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13989-2023.docx")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13989-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13989-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>A 69074-2018</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>43445</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>6</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 69074-2018.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 69074-2018.png")</f>
-        <v/>
-      </c>
-      <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 69074-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 69074-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 69074-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 69074-2018.docx")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9058-2020</t>
+          <t>A 69074-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43879</v>
+        <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4047,18 +4054,23 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4072,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4082,45 +4094,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9058-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 69074-2018.xlsx")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9058-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 69074-2018.png")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 69074-2018.docx")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 69074-2018.docx")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 69074-2018.docx")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 69074-2018.docx")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 9056-2020</t>
+          <t>A 9058-2020</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4133,16 +4145,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4167,45 +4179,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9056-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9058-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9056-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9058-2020.png")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9058-2020.docx")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9058-2020.docx")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9058-2020.docx")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9058-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11129-2020</t>
+          <t>A 9056-2020</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43889</v>
+        <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4218,17 +4230,17 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4252,45 +4264,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11129-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9056-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11129-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9056-2020.png")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9056-2020.docx")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9056-2020.docx")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9056-2020.docx")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9056-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15755-2020</t>
+          <t>A 11129-2020</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43915</v>
+        <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4303,16 +4315,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4327,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4337,45 +4349,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 15755-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11129-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 15755-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11129-2020.png")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11129-2020.docx")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11129-2020.docx")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11129-2020.docx")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11129-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49767-2020</t>
+          <t>A 15755-2020</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44106</v>
+        <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,25 +4399,20 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4420,56 +4427,52 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49767-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 15755-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49767-2020.png")</f>
-        <v/>
-      </c>
-      <c r="U43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49767-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 15755-2020.png")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 15755-2020.docx")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 15755-2020.docx")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 15755-2020.docx")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 15755-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49768-2020</t>
+          <t>A 49767-2020</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4487,7 +4490,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -4525,45 +4528,45 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49768-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49767-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49768-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49767-2020.png")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49768-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49767-2020.png")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49767-2020.docx")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49767-2020.docx")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49767-2020.docx")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49767-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49765-2020</t>
+          <t>A 49768-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4581,7 +4584,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -4619,45 +4622,45 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49765-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49768-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49765-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49768-2020.png")</f>
         <v/>
       </c>
       <c r="U45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49765-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49768-2020.png")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49768-2020.docx")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49768-2020.docx")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49768-2020.docx")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49768-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51111-2021</t>
+          <t>A 49765-2020</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44461</v>
+        <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4669,8 +4672,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -4708,45 +4716,45 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 51111-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49765-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 51111-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49765-2020.png")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 51111-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49765-2020.png")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49765-2020.docx")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49765-2020.docx")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49765-2020.docx")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49765-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60557-2021</t>
+          <t>A 51111-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44495</v>
+        <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4759,7 +4767,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -4797,31 +4805,31 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 60557-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 51111-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 60557-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 51111-2021.png")</f>
         <v/>
       </c>
       <c r="U47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 60557-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 51111-2021.png")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 51111-2021.docx")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 51111-2021.docx")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 51111-2021.docx")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 51111-2021.docx")</f>
         <v/>
       </c>
     </row>
@@ -4835,7 +4843,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4925,7 +4933,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5015,7 +5023,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5100,7 +5108,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5197,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5287,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5364,7 +5372,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5453,7 +5461,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5546,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5628,7 +5636,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5713,7 +5721,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5770,7 +5778,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5832,7 +5840,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5897,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5946,7 +5954,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6003,7 +6011,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6065,7 +6073,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6122,7 +6130,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6179,7 +6187,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6236,7 +6244,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6293,7 +6301,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6355,7 +6363,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6417,7 +6425,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6474,7 +6482,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6556,7 +6564,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6613,7 +6621,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6675,7 +6683,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6732,7 +6740,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6789,7 +6797,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6851,7 +6859,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6908,7 +6916,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6965,7 +6973,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7022,7 +7030,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7079,7 +7087,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7136,7 +7144,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7193,7 +7201,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7250,7 +7258,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7307,7 +7315,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7364,7 +7372,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7421,7 +7429,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7478,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7535,7 +7543,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7592,7 +7600,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7649,7 +7657,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7706,7 +7714,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7763,7 +7771,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7820,7 +7828,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7877,7 +7885,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7939,7 +7947,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8001,7 +8009,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8058,7 +8066,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8120,7 +8128,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8177,7 +8185,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8234,7 +8242,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8291,7 +8299,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8348,7 +8356,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8410,7 +8418,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8467,7 +8475,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8529,7 +8537,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8591,7 +8599,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8653,7 +8661,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8715,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8777,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8839,7 +8847,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8896,7 +8904,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8953,7 +8961,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9010,7 +9018,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9072,7 +9080,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9142,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9196,7 +9204,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9253,7 +9261,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9315,7 +9323,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9377,7 +9385,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9439,7 +9447,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9496,7 +9504,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9558,7 +9566,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9615,7 +9623,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9672,7 +9680,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9729,7 +9737,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9786,7 +9794,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9843,7 +9851,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9900,7 +9908,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9957,7 +9965,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10019,7 +10027,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10081,7 +10089,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10138,7 +10146,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10195,7 +10203,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10252,7 +10260,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10309,7 +10317,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10366,7 +10374,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10428,7 +10436,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10485,7 +10493,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10542,7 +10550,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10599,7 +10607,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10661,7 +10669,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10723,7 +10731,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10780,7 +10788,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10857,7 +10865,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10914,7 +10922,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10971,7 +10979,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11028,7 +11036,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11090,7 +11098,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11147,7 +11155,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11209,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11271,7 +11279,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11328,7 +11336,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11390,7 +11398,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11447,7 +11455,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11504,7 +11512,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11561,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11623,7 +11631,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11680,7 +11688,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11737,7 +11745,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11799,7 +11807,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11861,7 +11869,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11918,7 +11926,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11975,7 +11983,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12037,7 +12045,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12094,7 +12102,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12151,7 +12159,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12208,7 +12216,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12265,7 +12273,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12335,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12392,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12449,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12503,7 +12511,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12565,7 +12573,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12627,7 +12635,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12697,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12751,7 +12759,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12813,7 +12821,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12875,7 +12883,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12937,7 +12945,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12999,7 +13007,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13056,7 +13064,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13118,7 +13126,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13175,7 +13183,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13232,7 +13240,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13294,7 +13302,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13351,7 +13359,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13408,7 +13416,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13465,7 +13473,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13542,7 +13550,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13599,7 +13607,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13656,7 +13664,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13713,7 +13721,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13770,7 +13778,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13827,7 +13835,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13884,7 +13892,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13941,7 +13949,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13998,7 +14006,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14055,7 +14063,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14112,7 +14120,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14169,7 +14177,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14226,7 +14234,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14283,7 +14291,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14345,7 +14353,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14402,7 +14410,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14492,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14549,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14611,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14668,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14725,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14779,7 +14787,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14841,7 +14849,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14903,7 +14911,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14965,7 +14973,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15027,7 +15035,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15089,7 +15097,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15146,7 +15154,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15203,7 +15211,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15265,7 +15273,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15322,7 +15330,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15379,7 +15387,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15436,7 +15444,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15493,7 +15501,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15550,7 +15558,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15612,7 +15620,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15674,7 +15682,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15731,7 +15739,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15793,7 +15801,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15855,7 +15863,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15917,7 +15925,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15979,7 +15987,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16036,7 +16044,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16098,7 +16106,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16160,7 +16168,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16217,7 +16225,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16274,7 +16282,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16336,7 +16344,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16398,7 +16406,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16460,7 +16468,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16522,7 +16530,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16579,7 +16587,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16636,7 +16644,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16693,7 +16701,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16750,7 +16758,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16807,7 +16815,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16864,7 +16872,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16926,7 +16934,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16988,7 +16996,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17050,7 +17058,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17112,7 +17120,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17174,7 +17182,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17236,7 +17244,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17298,7 +17306,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17368,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17422,7 +17430,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17484,7 +17492,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17546,7 +17554,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17608,7 +17616,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17670,7 +17678,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17727,7 +17735,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17784,7 +17792,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17841,7 +17849,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17906,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17955,7 +17963,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18017,7 +18025,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18074,7 +18082,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18131,7 +18139,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18188,7 +18196,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18245,7 +18253,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18302,7 +18310,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18364,7 +18372,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18421,7 +18429,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18478,7 +18486,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18535,7 +18543,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18597,7 +18605,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18659,7 +18667,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18716,7 +18724,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18773,7 +18781,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18835,7 +18843,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18897,7 +18905,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18959,7 +18967,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19021,7 +19029,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19083,7 +19091,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19145,7 +19153,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19202,7 +19210,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19259,7 +19267,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19321,7 +19329,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19378,7 +19386,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19440,7 +19448,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19502,7 +19510,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19572,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19634,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19691,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19753,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19807,7 +19815,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19869,7 +19877,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19931,7 +19939,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19993,7 +20001,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20050,7 +20058,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20107,7 +20115,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20169,7 +20177,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20231,7 +20239,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20288,7 +20296,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20350,7 +20358,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20412,7 +20420,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20474,7 +20482,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20536,7 +20544,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44455</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44902</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43347</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44126</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44551</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44302</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43451</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43536</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,31 +643,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9053-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9053-2020.xlsx", "A 9053-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9053-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9053-2020.png", "A 9053-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 9053-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 9053-2020.png", "A 9053-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9053-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9053-2020.docx", "A 9053-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9053-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9053-2020.docx", "A 9053-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9053-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9053-2020.docx", "A 9053-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9053-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9053-2020.docx", "A 9053-2020")</f>
         <v/>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,31 +752,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58548-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58548-2022.xlsx", "A 58548-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58548-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58548-2022.png", "A 58548-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58548-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58548-2022.png", "A 58548-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58548-2022.docx", "A 58548-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58548-2022.docx", "A 58548-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58548-2022.docx", "A 58548-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58548-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58548-2022.docx", "A 58548-2022")</f>
         <v/>
       </c>
     </row>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,27 +849,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 41403-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 41403-2019.xlsx", "A 41403-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 41403-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 41403-2019.png", "A 41403-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41403-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41403-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41403-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41403-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
     </row>
@@ -883,7 +883,7 @@
         <v>44455</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,31 +942,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49876-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49876-2021.xlsx", "A 49876-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49876-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49876-2021.png", "A 49876-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49876-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49876-2021.png", "A 49876-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49876-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49876-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49876-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49876-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1039,31 +1039,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62040-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62040-2021.xlsx", "A 62040-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62040-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62040-2021.png", "A 62040-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62040-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62040-2021.png", "A 62040-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,31 +1135,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 66541-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 66541-2020.xlsx", "A 66541-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 66541-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 66541-2020.png", "A 66541-2020")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 66541-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 66541-2020.png", "A 66541-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 66541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 66541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 66541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 66541-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>44902</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58505-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58505-2022.xlsx", "A 58505-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58505-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58505-2022.png", "A 58505-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58505-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58505-2022.png", "A 58505-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         <v>43347</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,31 +1331,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 40951-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 40951-2018.xlsx", "A 40951-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 40951-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 40951-2018.png", "A 40951-2018")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 40951-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 40951-2018.png", "A 40951-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 40951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 40951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 40951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 40951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>44126</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,31 +1426,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 54380-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 54380-2020.xlsx", "A 54380-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 54380-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 54380-2020.png", "A 54380-2020")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 54380-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 54380-2020.png", "A 54380-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 54380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 54380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 54380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 54380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>44551</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,31 +1521,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 73456-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 73456-2021.xlsx", "A 73456-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 73456-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 73456-2021.png", "A 73456-2021")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 73456-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 73456-2021.png", "A 73456-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 73456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 73456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 73456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 73456-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
         <v>44302</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 18040-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 18040-2021.xlsx", "A 18040-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 18040-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 18040-2021.png", "A 18040-2021")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 18040-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 18040-2021.png", "A 18040-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 18040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 18040-2021.docx", "A 18040-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 18040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 18040-2021.docx", "A 18040-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 18040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 18040-2021.docx", "A 18040-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 18040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 18040-2021.docx", "A 18040-2021")</f>
         <v/>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,27 +1713,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 31534-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 31534-2021.xlsx", "A 31534-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 31534-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 31534-2021.png", "A 31534-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 31534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 31534-2021.docx", "A 31534-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 31534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 31534-2021.docx", "A 31534-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 31534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 31534-2021.docx", "A 31534-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 31534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 31534-2021.docx", "A 31534-2021")</f>
         <v/>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1802,31 +1802,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 60557-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 60557-2021.xlsx", "A 60557-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 60557-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 60557-2021.png", "A 60557-2021")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 60557-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 60557-2021.png", "A 60557-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 60557-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         <v>43451</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,27 +1899,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 70571-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 70571-2018.xlsx", "A 70571-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 70571-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 70571-2018.png", "A 70571-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 70571-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 70571-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 70571-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 70571-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
         <v>43536</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1992,27 +1992,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 14376-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 14376-2019.xlsx", "A 14376-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 14376-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 14376-2019.png", "A 14376-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2080,27 +2080,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45872-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45872-2021.xlsx", "A 45872-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45872-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45872-2021.png", "A 45872-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45872-2021.docx", "A 45872-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45872-2021.docx", "A 45872-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45872-2021.docx", "A 45872-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45872-2021.docx", "A 45872-2021")</f>
         <v/>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2168,31 +2168,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49872-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49872-2021.xlsx", "A 49872-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49872-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49872-2021.png", "A 49872-2021")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49872-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49872-2021.png", "A 49872-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49872-2021.docx", "A 49872-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49872-2021.docx", "A 49872-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49872-2021.docx", "A 49872-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49872-2021.docx", "A 49872-2021")</f>
         <v/>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,31 +2260,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58719-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58719-2021.xlsx", "A 58719-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58719-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58719-2021.png", "A 58719-2021")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58719-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58719-2021.png", "A 58719-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58719-2021.docx", "A 58719-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58719-2021.docx", "A 58719-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58719-2021.docx", "A 58719-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58719-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58719-2021.docx", "A 58719-2021")</f>
         <v/>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,31 +2352,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 57643-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 57643-2022.xlsx", "A 57643-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 57643-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 57643-2022.png", "A 57643-2022")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 57643-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 57643-2022.png", "A 57643-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 57643-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 57643-2022.docx", "A 57643-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 57643-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 57643-2022.docx", "A 57643-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 57643-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 57643-2022.docx", "A 57643-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 57643-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 57643-2022.docx", "A 57643-2022")</f>
         <v/>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2448,31 +2448,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49272-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49272-2020.xlsx", "A 49272-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49272-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49272-2020.png", "A 49272-2020")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49272-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49272-2020.png", "A 49272-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49272-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49272-2020.docx", "A 49272-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49272-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49272-2020.docx", "A 49272-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49272-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49272-2020.docx", "A 49272-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49272-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49272-2020.docx", "A 49272-2020")</f>
         <v/>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2544,31 +2544,31 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 55022-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 55022-2020.xlsx", "A 55022-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 55022-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 55022-2020.png", "A 55022-2020")</f>
         <v/>
       </c>
       <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 55022-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 55022-2020.png", "A 55022-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 55022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 55022-2020.docx", "A 55022-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 55022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 55022-2020.docx", "A 55022-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 55022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 55022-2020.docx", "A 55022-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 55022-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 55022-2020.docx", "A 55022-2020")</f>
         <v/>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2640,31 +2640,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 29213-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 29213-2021.xlsx", "A 29213-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 29213-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 29213-2021.png", "A 29213-2021")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 29213-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 29213-2021.png", "A 29213-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 29213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 29213-2021.docx", "A 29213-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 29213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 29213-2021.docx", "A 29213-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 29213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 29213-2021.docx", "A 29213-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 29213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 29213-2021.docx", "A 29213-2021")</f>
         <v/>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2736,31 +2736,31 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 34360-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 34360-2021.xlsx", "A 34360-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 34360-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 34360-2021.png", "A 34360-2021")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 34360-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 34360-2021.png", "A 34360-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 34360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 34360-2021.docx", "A 34360-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 34360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 34360-2021.docx", "A 34360-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 34360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 34360-2021.docx", "A 34360-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 34360-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 34360-2021.docx", "A 34360-2021")</f>
         <v/>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2827,31 +2827,31 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62054-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62054-2021.xlsx", "A 62054-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62054-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62054-2021.png", "A 62054-2021")</f>
         <v/>
       </c>
       <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62054-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62054-2021.png", "A 62054-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62054-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62054-2021.docx", "A 62054-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62054-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62054-2021.docx", "A 62054-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62054-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62054-2021.docx", "A 62054-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62054-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62054-2021.docx", "A 62054-2021")</f>
         <v/>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2918,31 +2918,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 2409-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 2409-2022.xlsx", "A 2409-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 2409-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 2409-2022.png", "A 2409-2022")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 2409-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 2409-2022.png", "A 2409-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 2409-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 2409-2022.docx", "A 2409-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 2409-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 2409-2022.docx", "A 2409-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 2409-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 2409-2022.docx", "A 2409-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 2409-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 2409-2022.docx", "A 2409-2022")</f>
         <v/>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3009,31 +3009,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4177-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4177-2022.xlsx", "A 4177-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4177-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4177-2022.png", "A 4177-2022")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 4177-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 4177-2022.png", "A 4177-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4177-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4177-2022.docx", "A 4177-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4177-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4177-2022.docx", "A 4177-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4177-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4177-2022.docx", "A 4177-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4177-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4177-2022.docx", "A 4177-2022")</f>
         <v/>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3104,27 +3104,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4540-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4540-2019.xlsx", "A 4540-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4540-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4540-2019.png", "A 4540-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4540-2019.docx", "A 4540-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4540-2019.docx", "A 4540-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4540-2019.docx", "A 4540-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4540-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4540-2019.docx", "A 4540-2019")</f>
         <v/>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,27 +3195,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49294-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49294-2019.xlsx", "A 49294-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49294-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49294-2019.png", "A 49294-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49294-2019.docx", "A 49294-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49294-2019.docx", "A 49294-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49294-2019.docx", "A 49294-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49294-2019.docx", "A 49294-2019")</f>
         <v/>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,31 +3281,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 7808-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 7808-2020.xlsx", "A 7808-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 7808-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 7808-2020.png", "A 7808-2020")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 7808-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 7808-2020.png", "A 7808-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 7808-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 7808-2020.docx", "A 7808-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 7808-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 7808-2020.docx", "A 7808-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 7808-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 7808-2020.docx", "A 7808-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 7808-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 7808-2020.docx", "A 7808-2020")</f>
         <v/>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3376,27 +3376,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 28066-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 28066-2021.xlsx", "A 28066-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 28066-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 28066-2021.png", "A 28066-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 28066-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 28066-2021.docx", "A 28066-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 28066-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 28066-2021.docx", "A 28066-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 28066-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 28066-2021.docx", "A 28066-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 28066-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 28066-2021.docx", "A 28066-2021")</f>
         <v/>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3467,31 +3467,31 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 34361-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 34361-2021.xlsx", "A 34361-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 34361-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 34361-2021.png", "A 34361-2021")</f>
         <v/>
       </c>
       <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 34361-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 34361-2021.png", "A 34361-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 34361-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 34361-2021.docx", "A 34361-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 34361-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 34361-2021.docx", "A 34361-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 34361-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 34361-2021.docx", "A 34361-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 34361-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 34361-2021.docx", "A 34361-2021")</f>
         <v/>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3557,31 +3557,31 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45884-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45884-2021.xlsx", "A 45884-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45884-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45884-2021.png", "A 45884-2021")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 45884-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 45884-2021.png", "A 45884-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45884-2021.docx", "A 45884-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45884-2021.docx", "A 45884-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45884-2021.docx", "A 45884-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45884-2021.docx", "A 45884-2021")</f>
         <v/>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3647,31 +3647,31 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 3152-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 3152-2022.xlsx", "A 3152-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 3152-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 3152-2022.png", "A 3152-2022")</f>
         <v/>
       </c>
       <c r="U34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 3152-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 3152-2022.png", "A 3152-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 3152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 3152-2022.docx", "A 3152-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 3152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 3152-2022.docx", "A 3152-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 3152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 3152-2022.docx", "A 3152-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 3152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 3152-2022.docx", "A 3152-2022")</f>
         <v/>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3742,27 +3742,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4031-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 4031-2022.xlsx", "A 4031-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4031-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 4031-2022.png", "A 4031-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 4031-2022.docx", "A 4031-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 4031-2022.docx", "A 4031-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 4031-2022.docx", "A 4031-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4031-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 4031-2022.docx", "A 4031-2022")</f>
         <v/>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3828,27 +3828,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11751-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11751-2023.xlsx", "A 11751-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11751-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11751-2023.png", "A 11751-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11751-2023.docx", "A 11751-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11751-2023.docx", "A 11751-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11751-2023.docx", "A 11751-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11751-2023.docx", "A 11751-2023")</f>
         <v/>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3914,31 +3914,31 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13916-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13916-2023.xlsx", "A 13916-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13916-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13916-2023.png", "A 13916-2023")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13916-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13916-2023.png", "A 13916-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13916-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13916-2023.docx", "A 13916-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13916-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13916-2023.docx", "A 13916-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13916-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13916-2023.docx", "A 13916-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13916-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13916-2023.docx", "A 13916-2023")</f>
         <v/>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4004,31 +4004,31 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13989-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13989-2023.xlsx", "A 13989-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13989-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13989-2023.png", "A 13989-2023")</f>
         <v/>
       </c>
       <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13989-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13989-2023.png", "A 13989-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13989-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13989-2023.docx", "A 13989-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13989-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13989-2023.docx", "A 13989-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13989-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13989-2023.docx", "A 13989-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13989-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13989-2023.docx", "A 13989-2023")</f>
         <v/>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4098,27 +4098,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 69074-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 69074-2018.xlsx", "A 69074-2018")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 69074-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 69074-2018.png", "A 69074-2018")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 69074-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 69074-2018.docx", "A 69074-2018")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 69074-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 69074-2018.docx", "A 69074-2018")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 69074-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 69074-2018.docx", "A 69074-2018")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 69074-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 69074-2018.docx", "A 69074-2018")</f>
         <v/>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4183,27 +4183,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9058-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9058-2020.xlsx", "A 9058-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9058-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9058-2020.png", "A 9058-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9058-2020.docx", "A 9058-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9058-2020.docx", "A 9058-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9058-2020.docx", "A 9058-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9058-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9058-2020.docx", "A 9058-2020")</f>
         <v/>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4268,27 +4268,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9056-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 9056-2020.xlsx", "A 9056-2020")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9056-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 9056-2020.png", "A 9056-2020")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 9056-2020.docx", "A 9056-2020")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 9056-2020.docx", "A 9056-2020")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 9056-2020.docx", "A 9056-2020")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 9056-2020.docx", "A 9056-2020")</f>
         <v/>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4353,27 +4353,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11129-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11129-2020.xlsx", "A 11129-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11129-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11129-2020.png", "A 11129-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11129-2020.docx", "A 11129-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11129-2020.docx", "A 11129-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11129-2020.docx", "A 11129-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11129-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11129-2020.docx", "A 11129-2020")</f>
         <v/>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4438,27 +4438,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 15755-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 15755-2020.xlsx", "A 15755-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 15755-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 15755-2020.png", "A 15755-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 15755-2020.docx", "A 15755-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 15755-2020.docx", "A 15755-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 15755-2020.docx", "A 15755-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 15755-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 15755-2020.docx", "A 15755-2020")</f>
         <v/>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4528,31 +4528,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49767-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49767-2020.xlsx", "A 49767-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49767-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49767-2020.png", "A 49767-2020")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49767-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49767-2020.png", "A 49767-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49767-2020.docx", "A 49767-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49767-2020.docx", "A 49767-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49767-2020.docx", "A 49767-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49767-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49767-2020.docx", "A 49767-2020")</f>
         <v/>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49768-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49768-2020.xlsx", "A 49768-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49768-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49768-2020.png", "A 49768-2020")</f>
         <v/>
       </c>
       <c r="U45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49768-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49768-2020.png", "A 49768-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49768-2020.docx", "A 49768-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49768-2020.docx", "A 49768-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49768-2020.docx", "A 49768-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49768-2020.docx", "A 49768-2020")</f>
         <v/>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4716,31 +4716,31 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49765-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49765-2020.xlsx", "A 49765-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49765-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49765-2020.png", "A 49765-2020")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49765-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49765-2020.png", "A 49765-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49765-2020.docx", "A 49765-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49765-2020.docx", "A 49765-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49765-2020.docx", "A 49765-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49765-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49765-2020.docx", "A 49765-2020")</f>
         <v/>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4805,31 +4805,31 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 51111-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 51111-2021.xlsx", "A 51111-2021")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 51111-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 51111-2021.png", "A 51111-2021")</f>
         <v/>
       </c>
       <c r="U47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 51111-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 51111-2021.png", "A 51111-2021")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 51111-2021.docx", "A 51111-2021")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 51111-2021.docx", "A 51111-2021")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 51111-2021.docx", "A 51111-2021")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 51111-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 51111-2021.docx", "A 51111-2021")</f>
         <v/>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4899,27 +4899,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 48135-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 48135-2022.xlsx", "A 48135-2022")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 48135-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 48135-2022.png", "A 48135-2022")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 48135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 48135-2022.docx", "A 48135-2022")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 48135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 48135-2022.docx", "A 48135-2022")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 48135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 48135-2022.docx", "A 48135-2022")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 48135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 48135-2022.docx", "A 48135-2022")</f>
         <v/>
       </c>
     </row>
@@ -4933,7 +4933,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4989,27 +4989,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 55144-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 55144-2022.xlsx", "A 55144-2022")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 55144-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 55144-2022.png", "A 55144-2022")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 55144-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 55144-2022.docx", "A 55144-2022")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 55144-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 55144-2022.docx", "A 55144-2022")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 55144-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 55144-2022.docx", "A 55144-2022")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 55144-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 55144-2022.docx", "A 55144-2022")</f>
         <v/>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,27 +5074,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11742-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 11742-2023.xlsx", "A 11742-2023")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11742-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 11742-2023.png", "A 11742-2023")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 11742-2023.docx", "A 11742-2023")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 11742-2023.docx", "A 11742-2023")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 11742-2023.docx", "A 11742-2023")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11742-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 11742-2023.docx", "A 11742-2023")</f>
         <v/>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5159,31 +5159,31 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13986-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 13986-2023.xlsx", "A 13986-2023")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13986-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 13986-2023.png", "A 13986-2023")</f>
         <v/>
       </c>
       <c r="U51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13986-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 13986-2023.png", "A 13986-2023")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 13986-2023.docx", "A 13986-2023")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 13986-2023.docx", "A 13986-2023")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 13986-2023.docx", "A 13986-2023")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13986-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 13986-2023.docx", "A 13986-2023")</f>
         <v/>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5253,27 +5253,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 20231-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 20231-2023.xlsx", "A 20231-2023")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 20231-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 20231-2023.png", "A 20231-2023")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 20231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 20231-2023.docx", "A 20231-2023")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 20231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 20231-2023.docx", "A 20231-2023")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 20231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 20231-2023.docx", "A 20231-2023")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 20231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 20231-2023.docx", "A 20231-2023")</f>
         <v/>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5338,27 +5338,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 21147-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 21147-2023.xlsx", "A 21147-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 21147-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 21147-2023.png", "A 21147-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 21147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 21147-2023.docx", "A 21147-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 21147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 21147-2023.docx", "A 21147-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 21147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 21147-2023.docx", "A 21147-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 21147-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 21147-2023.docx", "A 21147-2023")</f>
         <v/>
       </c>
     </row>
@@ -5372,7 +5372,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5423,31 +5423,31 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 23815-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 23815-2023.xlsx", "A 23815-2023")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 23815-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 23815-2023.png", "A 23815-2023")</f>
         <v/>
       </c>
       <c r="U54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 23815-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 23815-2023.png", "A 23815-2023")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 23815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 23815-2023.docx", "A 23815-2023")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 23815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 23815-2023.docx", "A 23815-2023")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 23815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 23815-2023.docx", "A 23815-2023")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 23815-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 23815-2023.docx", "A 23815-2023")</f>
         <v/>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5512,27 +5512,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 28028-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 28028-2023.xlsx", "A 28028-2023")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 28028-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 28028-2023.png", "A 28028-2023")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 28028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 28028-2023.docx", "A 28028-2023")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 28028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 28028-2023.docx", "A 28028-2023")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 28028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 28028-2023.docx", "A 28028-2023")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 28028-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 28028-2023.docx", "A 28028-2023")</f>
         <v/>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5602,27 +5602,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 33023-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 33023-2023.xlsx", "A 33023-2023")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 33023-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 33023-2023.png", "A 33023-2023")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 33023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 33023-2023.docx", "A 33023-2023")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 33023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 33023-2023.docx", "A 33023-2023")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 33023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 33023-2023.docx", "A 33023-2023")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 33023-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 33023-2023.docx", "A 33023-2023")</f>
         <v/>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5687,27 +5687,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 35321-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 35321-2023.xlsx", "A 35321-2023")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 35321-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 35321-2023.png", "A 35321-2023")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 35321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 35321-2023.docx", "A 35321-2023")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 35321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 35321-2023.docx", "A 35321-2023")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 35321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 35321-2023.docx", "A 35321-2023")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 35321-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 35321-2023.docx", "A 35321-2023")</f>
         <v/>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6534,23 +6534,23 @@
       </c>
       <c r="R71" s="2" t="inlineStr"/>
       <c r="U71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 72237-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 72237-2018.png", "A 72237-2018")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 72237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 72237-2018.docx", "A 72237-2018")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 72237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 72237-2018.docx", "A 72237-2018")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 72237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 72237-2018.docx", "A 72237-2018")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 72237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 72237-2018.docx", "A 72237-2018")</f>
         <v/>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10835,23 +10835,23 @@
       </c>
       <c r="R144" s="2" t="inlineStr"/>
       <c r="U144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 14554-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 14554-2020.png", "A 14554-2020")</f>
         <v/>
       </c>
       <c r="V144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14554-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14554-2020.docx", "A 14554-2020")</f>
         <v/>
       </c>
       <c r="W144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14554-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14554-2020.docx", "A 14554-2020")</f>
         <v/>
       </c>
       <c r="X144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14554-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14554-2020.docx", "A 14554-2020")</f>
         <v/>
       </c>
       <c r="Y144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14554-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14554-2020.docx", "A 14554-2020")</f>
         <v/>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13520,23 +13520,23 @@
       </c>
       <c r="R189" s="2" t="inlineStr"/>
       <c r="U189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62373-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62373-2020.png", "A 62373-2020")</f>
         <v/>
       </c>
       <c r="V189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62373-2020.docx", "A 62373-2020")</f>
         <v/>
       </c>
       <c r="W189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62373-2020.docx", "A 62373-2020")</f>
         <v/>
       </c>
       <c r="X189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62373-2020.docx", "A 62373-2020")</f>
         <v/>
       </c>
       <c r="Y189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62373-2020.docx", "A 62373-2020")</f>
         <v/>
       </c>
     </row>
@@ -13550,7 +13550,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14462,23 +14462,23 @@
       </c>
       <c r="R205" s="2" t="inlineStr"/>
       <c r="U205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 41047-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 41047-2021.png", "A 41047-2021")</f>
         <v/>
       </c>
       <c r="V205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41047-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41047-2021.docx", "A 41047-2021")</f>
         <v/>
       </c>
       <c r="W205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41047-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41047-2021.docx", "A 41047-2021")</f>
         <v/>
       </c>
       <c r="X205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41047-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41047-2021.docx", "A 41047-2021")</f>
         <v/>
       </c>
       <c r="Y205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41047-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41047-2021.docx", "A 41047-2021")</f>
         <v/>
       </c>
     </row>
@@ -14492,7 +14492,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44455</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44902</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43347</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44126</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44551</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44302</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43451</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43536</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44455</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44902</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43347</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44126</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44551</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44302</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43451</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43536</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>43698</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>44455</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>44502</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>44902</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43347</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>44126</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44551</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>44302</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43451</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>43536</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15154,7 +15154,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16468,7 +16468,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20239,7 +20239,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -623,6 +623,7 @@
 Lammticka
 Rynkskinn
 Garnlav
+Gropig brunbagge
 Gropticka
 Gränsticka
 Spillkråka
@@ -635,10 +636,13 @@
 Bronshjon
 Gulnål
 Rävticka
+Skinnlav
 Stor aspticka
 Svavelriska
+Thomsons trägnagare
 Tibast
 Vedticka
+Vårärt
 Vanlig groda</t>
         </is>
       </c>
@@ -681,7 +685,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -783,59 +787,160 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
+          <t>A 18040-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44302</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Rynkskinn
+Ulltickeporing
+Kortskaftad ärgspik
+Tretåig hackspett
+Ullticka
+Bollvitmossa
+Bronshjon
+Mindre märgborre
+Skarp dropptaggsvamp
+Tallfingersvamp
+Vedticka
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 18040-2021.xlsx", "A 18040-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 18040-2021.png", "A 18040-2021")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 18040-2021.png", "A 18040-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 18040-2021.docx", "A 18040-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 18040-2021.docx", "A 18040-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 18040-2021.docx", "A 18040-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 18040-2021.docx", "A 18040-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>A 41403-2019</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>43698</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>8.4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>9</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Barrviolspindling
 Gultoppig fingersvamp
@@ -848,87 +953,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 41403-2019.xlsx", "A 41403-2019")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 41403-2019.png", "A 41403-2019")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41403-2019.docx", "A 41403-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 49876-2021</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44455</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>6.3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>9</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -941,91 +1046,91 @@
 Tallfingersvamp</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 49876-2021.xlsx", "A 49876-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 49876-2021.png", "A 49876-2021")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 49876-2021.png", "A 49876-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 49876-2021.docx", "A 49876-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 62040-2021</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44502</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>1.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>6</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>9</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Blågrå svartspik
@@ -1038,91 +1143,91 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 62040-2021.xlsx", "A 62040-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 62040-2021.png", "A 62040-2021")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62040-2021.png", "A 62040-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62040-2021.docx", "A 62040-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 66541-2020</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44179</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>8</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1134,91 +1239,91 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 66541-2020.xlsx", "A 66541-2020")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 66541-2020.png", "A 66541-2020")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 66541-2020.png", "A 66541-2020")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 66541-2020.docx", "A 66541-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 58505-2022</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44902</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>8</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1230,96 +1335,96 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 58505-2022.xlsx", "A 58505-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 58505-2022.png", "A 58505-2022")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 58505-2022.png", "A 58505-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 58505-2022.docx", "A 58505-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 40951-2018</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43347</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>20.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1330,91 +1435,91 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 40951-2018.xlsx", "A 40951-2018")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 40951-2018.png", "A 40951-2018")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 40951-2018.png", "A 40951-2018")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 40951-2018.docx", "A 40951-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 54380-2020</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44126</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>7</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bronshjon
@@ -1425,91 +1530,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 54380-2020.xlsx", "A 54380-2020")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 54380-2020.png", "A 54380-2020")</f>
         <v/>
       </c>
-      <c r="U10">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 54380-2020.png", "A 54380-2020")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 54380-2020.docx", "A 54380-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 73456-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44551</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>5.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>5</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>7</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Slaguggla
@@ -1520,126 +1625,32 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 73456-2021.xlsx", "A 73456-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 73456-2021.png", "A 73456-2021")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 73456-2021.png", "A 73456-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 73456-2021.docx", "A 73456-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 73456-2021.docx", "A 73456-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 18040-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44302</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Kortskaftad ärgspik
-Tretåig hackspett
-Ullticka
-Bollvitmossa
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 18040-2021.xlsx", "A 18040-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 18040-2021.png", "A 18040-2021")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 18040-2021.png", "A 18040-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 18040-2021.docx", "A 18040-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 18040-2021.docx", "A 18040-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 18040-2021.docx", "A 18040-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 18040-2021.docx", "A 18040-2021")</f>
         <v/>
       </c>
     </row>
@@ -1653,7 +1664,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1747,7 +1758,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1851,7 @@
         <v>43451</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1944,7 @@
         <v>43536</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2026,7 +2037,7 @@
         <v>44441</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2114,7 +2125,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2217,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2298,7 +2309,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2390,7 +2401,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2497,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2593,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2678,7 +2689,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2774,7 +2785,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2865,7 +2876,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2956,7 +2967,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3047,7 +3058,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3138,7 +3149,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3229,7 +3240,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3330,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3421,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3505,7 +3516,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3606,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3696,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3776,7 +3787,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3873,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3952,7 +3963,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4042,7 +4053,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4132,7 +4143,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4217,7 +4228,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4302,7 +4313,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4387,7 +4398,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4472,7 +4483,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4566,7 +4577,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4660,7 +4671,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4754,7 +4765,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4843,7 +4854,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4944,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5023,7 +5034,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5108,7 +5119,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5197,7 +5208,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5287,7 +5298,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5372,7 +5383,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5461,7 +5472,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5557,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5636,7 +5647,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5721,7 +5732,7 @@
         <v>43374</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5778,7 +5789,7 @@
         <v>43376</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5840,7 +5851,7 @@
         <v>43384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5897,7 +5908,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5954,7 +5965,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6011,7 +6022,7 @@
         <v>43432</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6073,7 +6084,7 @@
         <v>43433</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,7 +6141,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6187,7 +6198,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6244,7 +6255,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6301,7 +6312,7 @@
         <v>43438</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6363,7 +6374,7 @@
         <v>43440</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6425,7 +6436,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6482,7 +6493,7 @@
         <v>43455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6564,7 +6575,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6621,7 +6632,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6694,7 @@
         <v>43464</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6751,7 @@
         <v>43472</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6808,7 @@
         <v>43474</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6859,7 +6870,7 @@
         <v>43481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6916,7 +6927,7 @@
         <v>43486</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6973,7 +6984,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7030,7 +7041,7 @@
         <v>43504</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7098,7 @@
         <v>43507</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7155,7 @@
         <v>43508</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7201,7 +7212,7 @@
         <v>43523</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7258,7 +7269,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7315,7 +7326,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7372,7 +7383,7 @@
         <v>43536</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7429,7 +7440,7 @@
         <v>43563</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7486,7 +7497,7 @@
         <v>43579</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7543,7 +7554,7 @@
         <v>43587</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7600,7 +7611,7 @@
         <v>43590</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7657,7 +7668,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7714,7 +7725,7 @@
         <v>43595</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7771,7 +7782,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7828,7 +7839,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7885,7 +7896,7 @@
         <v>43609</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7958,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8020,7 @@
         <v>43616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8066,7 +8077,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8139,7 @@
         <v>43627</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8196,7 @@
         <v>43635</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8253,7 @@
         <v>43636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8310,7 @@
         <v>43654</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8367,7 @@
         <v>43665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8429,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8486,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8537,7 +8548,7 @@
         <v>43720</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8599,7 +8610,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8661,7 +8672,7 @@
         <v>43725</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8723,7 +8734,7 @@
         <v>43731</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8785,7 +8796,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8847,7 +8858,7 @@
         <v>43734</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8904,7 +8915,7 @@
         <v>43741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8961,7 +8972,7 @@
         <v>43748</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9018,7 +9029,7 @@
         <v>43780</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9080,7 +9091,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9142,7 +9153,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9204,7 +9215,7 @@
         <v>43783</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9261,7 +9272,7 @@
         <v>43791</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9323,7 +9334,7 @@
         <v>43802</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9385,7 +9396,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9447,7 +9458,7 @@
         <v>43820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9504,7 +9515,7 @@
         <v>43840</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9566,7 +9577,7 @@
         <v>43850</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9623,7 +9634,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9680,7 +9691,7 @@
         <v>43851</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9737,7 +9748,7 @@
         <v>43860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9794,7 +9805,7 @@
         <v>43864</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9851,7 +9862,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9908,7 +9919,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9965,7 +9976,7 @@
         <v>43867</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10027,7 +10038,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10089,7 +10100,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10146,7 +10157,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10203,7 +10214,7 @@
         <v>43874</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10260,7 +10271,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10317,7 +10328,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10374,7 +10385,7 @@
         <v>43879</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10436,7 +10447,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10493,7 +10504,7 @@
         <v>43881</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10550,7 +10561,7 @@
         <v>43886</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10607,7 +10618,7 @@
         <v>43894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10669,7 +10680,7 @@
         <v>43906</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10731,7 +10742,7 @@
         <v>43907</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10788,7 +10799,7 @@
         <v>43908</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10865,7 +10876,7 @@
         <v>43910</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10922,7 +10933,7 @@
         <v>43924</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10979,7 +10990,7 @@
         <v>43935</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11036,7 +11047,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11098,7 +11109,7 @@
         <v>43949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11155,7 +11166,7 @@
         <v>43955</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11217,7 +11228,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11279,7 +11290,7 @@
         <v>43956</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11336,7 +11347,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11398,7 +11409,7 @@
         <v>43968</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11455,7 +11466,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11512,7 +11523,7 @@
         <v>43971</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11569,7 +11580,7 @@
         <v>43978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11631,7 +11642,7 @@
         <v>43983</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11688,7 +11699,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11745,7 +11756,7 @@
         <v>43991</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11807,7 +11818,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11880,7 @@
         <v>44006</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11937,7 @@
         <v>44013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11994,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12045,7 +12056,7 @@
         <v>44018</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12102,7 +12113,7 @@
         <v>44046</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12159,7 +12170,7 @@
         <v>44070</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12216,7 +12227,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12273,7 +12284,7 @@
         <v>44078</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12335,7 +12346,7 @@
         <v>44083</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12392,7 +12403,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12449,7 +12460,7 @@
         <v>44084</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12511,7 +12522,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12573,7 +12584,7 @@
         <v>44093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12635,7 +12646,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12697,7 +12708,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12759,7 +12770,7 @@
         <v>44105</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12821,7 +12832,7 @@
         <v>44106</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12883,7 +12894,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12945,7 +12956,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13007,7 +13018,7 @@
         <v>44126</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13064,7 +13075,7 @@
         <v>44138</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13126,7 +13137,7 @@
         <v>44141</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13183,7 +13194,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13240,7 +13251,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13302,7 +13313,7 @@
         <v>44144</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13359,7 +13370,7 @@
         <v>44148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13416,7 +13427,7 @@
         <v>44160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13473,7 +13484,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13550,7 +13561,7 @@
         <v>44175</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13607,7 +13618,7 @@
         <v>44180</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13664,7 +13675,7 @@
         <v>44203</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13721,7 +13732,7 @@
         <v>44210</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13778,7 +13789,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13835,7 +13846,7 @@
         <v>44217</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13892,7 +13903,7 @@
         <v>44233</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13949,7 +13960,7 @@
         <v>44235</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14006,7 +14017,7 @@
         <v>44253</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14063,7 +14074,7 @@
         <v>44283</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14120,7 +14131,7 @@
         <v>44299</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14177,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14234,7 +14245,7 @@
         <v>44321</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14291,7 +14302,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14353,7 +14364,7 @@
         <v>44358</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14410,7 +14421,7 @@
         <v>44421</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14492,7 +14503,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14549,7 +14560,7 @@
         <v>44434</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14611,7 +14622,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14668,7 +14679,7 @@
         <v>44455</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14725,7 +14736,7 @@
         <v>44456</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14787,7 +14798,7 @@
         <v>44462</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14849,7 +14860,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14911,7 +14922,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14973,7 +14984,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15035,7 +15046,7 @@
         <v>44482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15097,7 +15108,7 @@
         <v>44495</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15154,7 +15165,7 @@
         <v>44501</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15211,7 +15222,7 @@
         <v>44502</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15273,7 +15284,7 @@
         <v>44511</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15330,7 +15341,7 @@
         <v>44529</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15387,7 +15398,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15444,7 +15455,7 @@
         <v>44546</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15501,7 +15512,7 @@
         <v>44565</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15558,7 +15569,7 @@
         <v>44574</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15620,7 +15631,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15682,7 +15693,7 @@
         <v>44575</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15739,7 +15750,7 @@
         <v>44588</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15801,7 +15812,7 @@
         <v>44628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15863,7 +15874,7 @@
         <v>44665</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15925,7 +15936,7 @@
         <v>44716</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15987,7 +15998,7 @@
         <v>44720</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16044,7 +16055,7 @@
         <v>44722</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16106,7 +16117,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16168,7 +16179,7 @@
         <v>44726</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16225,7 +16236,7 @@
         <v>44727</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16282,7 +16293,7 @@
         <v>44732</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16344,7 +16355,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16406,7 +16417,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16468,7 +16479,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16530,7 +16541,7 @@
         <v>44733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16587,7 +16598,7 @@
         <v>44746</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16644,7 +16655,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16701,7 +16712,7 @@
         <v>44792</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16758,7 +16769,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16815,7 +16826,7 @@
         <v>44805</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16872,7 +16883,7 @@
         <v>44817</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16934,7 +16945,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16996,7 +17007,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17058,7 +17069,7 @@
         <v>44820</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17120,7 +17131,7 @@
         <v>44844</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17182,7 +17193,7 @@
         <v>44859</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17244,7 +17255,7 @@
         <v>44860</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17306,7 +17317,7 @@
         <v>44864</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17368,7 +17379,7 @@
         <v>44869</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17430,7 +17441,7 @@
         <v>44875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17492,7 +17503,7 @@
         <v>44881</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17554,7 +17565,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17616,7 +17627,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17678,7 +17689,7 @@
         <v>44900</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17735,7 +17746,7 @@
         <v>44904</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17792,7 +17803,7 @@
         <v>44917</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17849,7 +17860,7 @@
         <v>44925</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17906,7 +17917,7 @@
         <v>44945</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17963,7 +17974,7 @@
         <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18025,7 +18036,7 @@
         <v>44961</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18082,7 +18093,7 @@
         <v>44967</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18139,7 +18150,7 @@
         <v>44978</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18196,7 +18207,7 @@
         <v>44985</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18253,7 +18264,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18310,7 +18321,7 @@
         <v>44998</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18372,7 +18383,7 @@
         <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18429,7 +18440,7 @@
         <v>45008</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18486,7 +18497,7 @@
         <v>45013</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18543,7 +18554,7 @@
         <v>45022</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18605,7 +18616,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18667,7 +18678,7 @@
         <v>45029</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18724,7 +18735,7 @@
         <v>45055</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18781,7 +18792,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18843,7 +18854,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18905,7 +18916,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18967,7 +18978,7 @@
         <v>45061</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19029,7 +19040,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19091,7 +19102,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19153,7 +19164,7 @@
         <v>45070</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19210,7 +19221,7 @@
         <v>45071</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19267,7 +19278,7 @@
         <v>45083</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19329,7 +19340,7 @@
         <v>45085</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19386,7 +19397,7 @@
         <v>45086</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19448,7 +19459,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19510,7 +19521,7 @@
         <v>45097</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19572,7 +19583,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19634,7 +19645,7 @@
         <v>45099</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19691,7 +19702,7 @@
         <v>45104</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19753,7 +19764,7 @@
         <v>45105</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19815,7 +19826,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19877,7 +19888,7 @@
         <v>45109</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19939,7 +19950,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20001,7 +20012,7 @@
         <v>45113</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20058,7 +20069,7 @@
         <v>45114</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20115,7 +20126,7 @@
         <v>45118</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20177,7 +20188,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20239,7 +20250,7 @@
         <v>45120</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20296,7 +20307,7 @@
         <v>45121</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20358,7 +20369,7 @@
         <v>45127</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20420,7 +20431,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20493,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20544,7 +20555,7 @@
         <v>45159</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44302</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -831,20 +831,23 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Knärot
+          <t>Gräddticka
+Knärot
 Rynkskinn
 Ulltickeporing
 Kortskaftad ärgspik
+Leptoporus mollis
+Rosenticka
 Tretåig hackspett
 Ullticka
 Bollvitmossa
@@ -895,7 +898,7 @@
         <v>43698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +991,7 @@
         <v>44455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1088,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,7 +1185,7 @@
         <v>44179</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1281,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1377,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1477,7 @@
         <v>44126</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1572,7 @@
         <v>44551</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1664,7 +1667,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1751,14 +1754,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 60557-2021</t>
+          <t>A 45872-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44495</v>
+        <v>44441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,39 +1774,128 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5</v>
-      </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Bollvitmossa
+Gulnål
+Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45872-2021.xlsx", "A 45872-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45872-2021.png", "A 45872-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45872-2021.docx", "A 45872-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45872-2021.docx", "A 45872-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45872-2021.docx", "A 45872-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45872-2021.docx", "A 45872-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 60557-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44495</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -1812,96 +1904,96 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 60557-2021.xlsx", "A 60557-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 60557-2021.png", "A 60557-2021")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 60557-2021.png", "A 60557-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 60557-2021.docx", "A 60557-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 70571-2018</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>43451</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>4.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>3</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Rödvingetrast
@@ -1909,92 +2001,92 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 70571-2018.xlsx", "A 70571-2018")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 70571-2018.png", "A 70571-2018")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 70571-2018.docx", "A 70571-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 14376-2019</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>43536</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HEDEMORA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>1.3</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>4</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Drillsnäppa
 Svartvit flugsnappare
@@ -2002,116 +2094,28 @@
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 14376-2019.xlsx", "A 14376-2019")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 14376-2019.png", "A 14376-2019")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14376-2019.docx", "A 14376-2019")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14376-2019.docx", "A 14376-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 45872-2021</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44441</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Bollvitmossa
-Gulnål
-Rödgul trumpetsvamp</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 45872-2021.xlsx", "A 45872-2021")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 45872-2021.png", "A 45872-2021")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 45872-2021.docx", "A 45872-2021")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 45872-2021.docx", "A 45872-2021")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 45872-2021.docx", "A 45872-2021")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 45872-2021.docx", "A 45872-2021")</f>
         <v/>
       </c>
     </row>
@@ -2125,7 +2129,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2217,7 +2221,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2309,7 +2313,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2401,7 +2405,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2497,7 +2501,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2593,7 +2597,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2689,7 +2693,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2785,7 +2789,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2876,7 +2880,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2967,7 +2971,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3058,7 +3062,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3153,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3240,7 +3244,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3330,7 +3334,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3425,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3516,7 +3520,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3606,7 +3610,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3696,7 +3700,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3787,7 +3791,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3873,7 +3877,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3963,7 +3967,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4053,7 +4057,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4143,7 +4147,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4228,7 +4232,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4313,7 +4317,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4398,7 +4402,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4483,7 +4487,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4577,7 +4581,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4671,7 +4675,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4765,7 +4769,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4854,7 +4858,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4944,7 +4948,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5034,7 +5038,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5119,7 +5123,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5208,7 +5212,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5298,7 +5302,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5383,7 +5387,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5472,7 +5476,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5557,7 +5561,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5647,7 +5651,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5725,14 +5729,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59680-2018</t>
+          <t>A 37654-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43374</v>
+        <v>45159</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5745,10 +5749,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5757,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5769,27 +5773,59 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/artfynd/A 37654-2023.xlsx", "A 37654-2023")</f>
+        <v/>
+      </c>
+      <c r="T58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/kartor/A 37654-2023.png", "A 37654-2023")</f>
+        <v/>
+      </c>
+      <c r="U58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 37654-2023.png", "A 37654-2023")</f>
+        <v/>
+      </c>
+      <c r="V58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 37654-2023.docx", "A 37654-2023")</f>
+        <v/>
+      </c>
+      <c r="W58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 37654-2023.docx", "A 37654-2023")</f>
+        <v/>
+      </c>
+      <c r="X58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 37654-2023.docx", "A 37654-2023")</f>
+        <v/>
+      </c>
+      <c r="Y58">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 37654-2023.docx", "A 37654-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49376-2018</t>
+          <t>A 59680-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43376</v>
+        <v>43374</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5801,13 +5837,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5844,14 +5875,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52848-2018</t>
+          <t>A 49376-2018</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43384</v>
+        <v>43376</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5863,8 +5894,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5901,14 +5937,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 52850-2018</t>
+          <t>A 52848-2018</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5958,14 +5994,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59350-2018</t>
+          <t>A 52850-2018</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43418</v>
+        <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5978,7 +6014,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6015,14 +6051,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64981-2018</t>
+          <t>A 59350-2018</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43432</v>
+        <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6032,11 +6068,6 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>HEDEMORA</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6077,14 +6108,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 65382-2018</t>
+          <t>A 64981-2018</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6096,8 +6127,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6134,14 +6170,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 65551-2018</t>
+          <t>A 65382-2018</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6154,7 +6190,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6191,14 +6227,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 65565-2018</t>
+          <t>A 65551-2018</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6211,7 +6247,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6248,14 +6284,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 65535-2018</t>
+          <t>A 65565-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6268,7 +6304,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6305,14 +6341,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 67042-2018</t>
+          <t>A 65535-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43438</v>
+        <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6324,13 +6360,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6367,14 +6398,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 67823-2018</t>
+          <t>A 67042-2018</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43440</v>
+        <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6429,14 +6460,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 69676-2018</t>
+          <t>A 67823-2018</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43444</v>
+        <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6448,8 +6479,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6486,14 +6522,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 72237-2018</t>
+          <t>A 69676-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43455</v>
+        <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6505,13 +6541,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6544,38 +6575,18 @@
         <v>0</v>
       </c>
       <c r="R71" s="2" t="inlineStr"/>
-      <c r="U71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 72237-2018.png", "A 72237-2018")</f>
-        <v/>
-      </c>
-      <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 72237-2018.docx", "A 72237-2018")</f>
-        <v/>
-      </c>
-      <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 72237-2018.docx", "A 72237-2018")</f>
-        <v/>
-      </c>
-      <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 72237-2018.docx", "A 72237-2018")</f>
-        <v/>
-      </c>
-      <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 72237-2018.docx", "A 72237-2018")</f>
-        <v/>
-      </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 72081-2018</t>
+          <t>A 72237-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6587,8 +6598,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6621,18 +6637,38 @@
         <v>0</v>
       </c>
       <c r="R72" s="2" t="inlineStr"/>
+      <c r="U72">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 72237-2018.png", "A 72237-2018")</f>
+        <v/>
+      </c>
+      <c r="V72">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 72237-2018.docx", "A 72237-2018")</f>
+        <v/>
+      </c>
+      <c r="W72">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 72237-2018.docx", "A 72237-2018")</f>
+        <v/>
+      </c>
+      <c r="X72">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 72237-2018.docx", "A 72237-2018")</f>
+        <v/>
+      </c>
+      <c r="Y72">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 72237-2018.docx", "A 72237-2018")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 72241-2018</t>
+          <t>A 72081-2018</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6644,13 +6680,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6687,14 +6718,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 72622-2018</t>
+          <t>A 72241-2018</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43464</v>
+        <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6706,8 +6737,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6744,14 +6780,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1019-2019</t>
+          <t>A 72622-2018</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43472</v>
+        <v>43464</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6764,7 +6800,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6801,14 +6837,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3349-2019</t>
+          <t>A 1019-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43474</v>
+        <v>43472</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6820,13 +6856,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6863,14 +6894,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3529-2019</t>
+          <t>A 3349-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43481</v>
+        <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6882,8 +6913,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>14.7</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6920,14 +6956,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4764-2019</t>
+          <t>A 3529-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43486</v>
+        <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6940,7 +6976,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6977,14 +7013,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4473-2019</t>
+          <t>A 4764-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6997,7 +7033,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7034,14 +7070,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8981-2019</t>
+          <t>A 4473-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43504</v>
+        <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7054,7 +7090,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7091,14 +7127,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9350-2019</t>
+          <t>A 8981-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43507</v>
+        <v>43504</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7111,7 +7147,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7148,14 +7184,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9655-2019</t>
+          <t>A 9350-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7168,7 +7204,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7205,14 +7241,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12359-2019</t>
+          <t>A 9655-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43523</v>
+        <v>43508</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7225,7 +7261,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7262,14 +7298,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 12367-2019</t>
+          <t>A 12359-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7282,7 +7318,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -7319,14 +7355,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12380-2019</t>
+          <t>A 12367-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7339,7 +7375,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -7376,14 +7412,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14365-2019</t>
+          <t>A 12380-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43536</v>
+        <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7396,7 +7432,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -7433,14 +7469,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19016-2019</t>
+          <t>A 14365-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43563</v>
+        <v>43536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7453,7 +7489,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -7490,14 +7526,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21212-2019</t>
+          <t>A 19016-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43579</v>
+        <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7510,7 +7546,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7547,14 +7583,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22494-2019</t>
+          <t>A 21212-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43587</v>
+        <v>43579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7567,7 +7603,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7604,14 +7640,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22810-2019</t>
+          <t>A 22494-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43590</v>
+        <v>43587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7624,7 +7660,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7661,14 +7697,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23492-2019</t>
+          <t>A 22810-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43594</v>
+        <v>43590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7681,7 +7717,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7718,14 +7754,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 23808-2019</t>
+          <t>A 23492-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43595</v>
+        <v>43594</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7738,7 +7774,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7775,14 +7811,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23804-2019</t>
+          <t>A 23808-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7832,14 +7868,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24904-2019</t>
+          <t>A 23804-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43602</v>
+        <v>43595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7889,14 +7925,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26162-2019</t>
+          <t>A 24904-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43609</v>
+        <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7908,13 +7944,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>12.8</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7951,14 +7982,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26167-2019</t>
+          <t>A 26162-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7976,7 +8007,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>12.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -8013,14 +8044,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27393-2019</t>
+          <t>A 26167-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43616</v>
+        <v>43609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8032,8 +8063,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -8070,14 +8106,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27949-2019</t>
+          <t>A 27393-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43620</v>
+        <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8089,13 +8125,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -8132,14 +8163,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28696-2019</t>
+          <t>A 27949-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43627</v>
+        <v>43620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8151,8 +8182,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -8189,14 +8225,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30497-2019</t>
+          <t>A 28696-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43635</v>
+        <v>43627</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8209,7 +8245,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -8246,14 +8282,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30687-2019</t>
+          <t>A 30497-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43636</v>
+        <v>43635</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8266,7 +8302,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -8303,14 +8339,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34027-2019</t>
+          <t>A 30687-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43654</v>
+        <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8323,7 +8359,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -8360,14 +8396,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35855-2019</t>
+          <t>A 34027-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43665</v>
+        <v>43654</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8379,13 +8415,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -8422,14 +8453,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41399-2019</t>
+          <t>A 35855-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43698</v>
+        <v>43665</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8441,8 +8472,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -8479,14 +8515,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43530-2019</t>
+          <t>A 41399-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43706</v>
+        <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8498,13 +8534,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8541,14 +8572,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46795-2019</t>
+          <t>A 43530-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43720</v>
+        <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8566,7 +8597,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8603,14 +8634,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46775-2019</t>
+          <t>A 46795-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8628,7 +8659,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8665,14 +8696,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47882-2019</t>
+          <t>A 46775-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43725</v>
+        <v>43720</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8690,7 +8721,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8727,14 +8758,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49300-2019</t>
+          <t>A 47882-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43731</v>
+        <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8752,7 +8783,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8789,14 +8820,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49197-2019</t>
+          <t>A 49300-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8814,7 +8845,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8851,14 +8882,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50183-2019</t>
+          <t>A 49197-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43734</v>
+        <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8870,8 +8901,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8908,14 +8944,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 51877-2019</t>
+          <t>A 50183-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43741</v>
+        <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8928,7 +8964,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8965,14 +9001,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53323-2019</t>
+          <t>A 51877-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43748</v>
+        <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8985,7 +9021,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -9022,14 +9058,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60318-2019</t>
+          <t>A 53323-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43780</v>
+        <v>43748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9041,13 +9077,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -9084,14 +9115,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60529-2019</t>
+          <t>A 60318-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9105,11 +9136,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -9146,14 +9177,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60556-2019</t>
+          <t>A 60529-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9171,7 +9202,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -9208,14 +9239,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 61382-2019</t>
+          <t>A 60556-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43783</v>
+        <v>43781</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9227,8 +9258,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -9265,14 +9301,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63101-2019</t>
+          <t>A 61382-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43791</v>
+        <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9284,13 +9320,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -9327,14 +9358,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 65308-2019</t>
+          <t>A 63101-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43802</v>
+        <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9348,11 +9379,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -9389,14 +9420,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 65315-2019</t>
+          <t>A 65308-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9414,7 +9445,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -9451,14 +9482,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 68856-2019</t>
+          <t>A 65315-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43820</v>
+        <v>43802</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9470,8 +9501,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>17.6</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -9508,14 +9544,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1215-2020</t>
+          <t>A 68856-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43840</v>
+        <v>43820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9527,13 +9563,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>7</v>
+        <v>17.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9570,14 +9601,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 2915-2020</t>
+          <t>A 1215-2020</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43850</v>
+        <v>43840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9589,8 +9620,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9627,14 +9663,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2846-2020</t>
+          <t>A 2915-2020</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9647,7 +9683,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9684,14 +9720,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 3127-2020</t>
+          <t>A 2846-2020</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43851</v>
+        <v>43850</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9704,7 +9740,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9741,14 +9777,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5353-2020</t>
+          <t>A 3127-2020</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43860</v>
+        <v>43851</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9761,7 +9797,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9798,14 +9834,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 5752-2020</t>
+          <t>A 5353-2020</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9818,7 +9854,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9855,14 +9891,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 5763-2020</t>
+          <t>A 5752-2020</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9875,7 +9911,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9912,14 +9948,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5950-2020</t>
+          <t>A 5763-2020</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9969,14 +10005,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6795-2020</t>
+          <t>A 5950-2020</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9988,13 +10024,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -10031,14 +10062,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6794-2020</t>
+          <t>A 6795-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10056,7 +10087,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -10093,14 +10124,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7434-2020</t>
+          <t>A 6794-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43871</v>
+        <v>43867</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10112,8 +10143,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -10150,14 +10186,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7209-2020</t>
+          <t>A 7434-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10170,7 +10206,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -10207,14 +10243,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8181-2020</t>
+          <t>A 7209-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10227,7 +10263,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -10264,14 +10300,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8494-2020</t>
+          <t>A 8181-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10284,7 +10320,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -10321,14 +10357,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8489-2020</t>
+          <t>A 8494-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10341,7 +10377,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -10378,14 +10414,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 9042-2020</t>
+          <t>A 8489-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43879</v>
+        <v>43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10397,13 +10433,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -10440,14 +10471,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 9054-2020</t>
+          <t>A 9042-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10459,8 +10490,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10497,14 +10533,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9714-2020</t>
+          <t>A 9054-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10517,7 +10553,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10554,14 +10590,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 10507-2020</t>
+          <t>A 9714-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43886</v>
+        <v>43881</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10574,7 +10610,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10611,14 +10647,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 11894-2020</t>
+          <t>A 10507-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10630,13 +10666,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10673,14 +10704,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 13872-2020</t>
+          <t>A 11894-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43906</v>
+        <v>43894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10694,11 +10725,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10735,14 +10766,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 14117-2020</t>
+          <t>A 13872-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10754,8 +10785,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10792,14 +10828,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 14554-2020</t>
+          <t>A 14117-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10812,7 +10848,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10845,38 +10881,18 @@
         <v>0</v>
       </c>
       <c r="R144" s="2" t="inlineStr"/>
-      <c r="U144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 14554-2020.png", "A 14554-2020")</f>
-        <v/>
-      </c>
-      <c r="V144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14554-2020.docx", "A 14554-2020")</f>
-        <v/>
-      </c>
-      <c r="W144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14554-2020.docx", "A 14554-2020")</f>
-        <v/>
-      </c>
-      <c r="X144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14554-2020.docx", "A 14554-2020")</f>
-        <v/>
-      </c>
-      <c r="Y144">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14554-2020.docx", "A 14554-2020")</f>
-        <v/>
-      </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16641-2020</t>
+          <t>A 14554-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10889,7 +10905,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10922,18 +10938,38 @@
         <v>0</v>
       </c>
       <c r="R145" s="2" t="inlineStr"/>
+      <c r="U145">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 14554-2020.png", "A 14554-2020")</f>
+        <v/>
+      </c>
+      <c r="V145">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 14554-2020.docx", "A 14554-2020")</f>
+        <v/>
+      </c>
+      <c r="W145">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 14554-2020.docx", "A 14554-2020")</f>
+        <v/>
+      </c>
+      <c r="X145">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 14554-2020.docx", "A 14554-2020")</f>
+        <v/>
+      </c>
+      <c r="Y145">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 14554-2020.docx", "A 14554-2020")</f>
+        <v/>
+      </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17882-2020</t>
+          <t>A 16641-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43924</v>
+        <v>43910</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10946,7 +10982,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>9.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10983,14 +11019,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18955-2020</t>
+          <t>A 17882-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43935</v>
+        <v>43924</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11003,7 +11039,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -11040,14 +11076,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 18824-2020</t>
+          <t>A 18955-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,13 +11095,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>22.7</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -11102,14 +11133,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20804-2020</t>
+          <t>A 18824-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43949</v>
+        <v>43935</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11121,8 +11152,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>4.7</v>
+        <v>22.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -11159,14 +11195,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21252-2020</t>
+          <t>A 20804-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>43955</v>
+        <v>43949</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11178,13 +11214,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -11221,14 +11252,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21254-2020</t>
+          <t>A 21252-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11246,7 +11277,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -11283,14 +11314,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 21458-2020</t>
+          <t>A 21254-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11302,8 +11333,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11340,14 +11376,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 22374-2020</t>
+          <t>A 21458-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43962</v>
+        <v>43956</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11359,13 +11395,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>9.1</v>
+        <v>3.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11402,14 +11433,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23402-2020</t>
+          <t>A 22374-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43968</v>
+        <v>43962</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11421,8 +11452,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>9.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11459,14 +11495,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 23401-2020</t>
+          <t>A 23402-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11479,7 +11515,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11516,14 +11552,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 23872-2020</t>
+          <t>A 23401-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43971</v>
+        <v>43968</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11536,7 +11572,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11573,14 +11609,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24759-2020</t>
+          <t>A 23872-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43978</v>
+        <v>43971</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11592,13 +11628,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>9.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11635,14 +11666,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25623-2020</t>
+          <t>A 24759-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>43983</v>
+        <v>43978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11654,8 +11685,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11692,14 +11728,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 25657-2020</t>
+          <t>A 25623-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11712,7 +11748,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11749,14 +11785,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 27076-2020</t>
+          <t>A 25657-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>43991</v>
+        <v>43983</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11768,13 +11804,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11811,14 +11842,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 27050-2020</t>
+          <t>A 27076-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11836,7 +11867,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.3</v>
+        <v>10.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11873,14 +11904,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29857-2020</t>
+          <t>A 27050-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44006</v>
+        <v>43991</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11892,8 +11923,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11930,14 +11966,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 31579-2020</t>
+          <t>A 29857-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44013</v>
+        <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11950,7 +11986,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11987,14 +12023,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 31502-2020</t>
+          <t>A 31579-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12006,13 +12042,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>10.2</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -12049,14 +12080,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32508-2020</t>
+          <t>A 31502-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44018</v>
+        <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12068,8 +12099,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>10.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -12106,14 +12142,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35786-2020</t>
+          <t>A 32508-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44046</v>
+        <v>44018</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12126,7 +12162,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -12163,14 +12199,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 40865-2020</t>
+          <t>A 35786-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44070</v>
+        <v>44046</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12183,7 +12219,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -12220,14 +12256,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 40868-2020</t>
+          <t>A 40865-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12240,7 +12276,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -12277,14 +12313,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 42929-2020</t>
+          <t>A 40868-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44078</v>
+        <v>44070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12296,13 +12332,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -12339,14 +12370,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 44098-2020</t>
+          <t>A 42929-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12358,8 +12389,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -12396,14 +12432,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 44110-2020</t>
+          <t>A 44098-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12416,7 +12452,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -12453,14 +12489,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45616-2020</t>
+          <t>A 44110-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12472,13 +12508,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -12515,14 +12546,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45392-2020</t>
+          <t>A 45616-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12540,7 +12571,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12577,14 +12608,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46392-2020</t>
+          <t>A 45392-2020</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44093</v>
+        <v>44085</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12598,11 +12629,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12639,14 +12670,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46391-2020</t>
+          <t>A 46392-2020</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12664,7 +12695,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12701,14 +12732,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 46393-2020</t>
+          <t>A 46391-2020</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12726,7 +12757,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12763,14 +12794,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49271-2020</t>
+          <t>A 46393-2020</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44105</v>
+        <v>44093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12788,7 +12819,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12825,14 +12856,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49760-2020</t>
+          <t>A 49271-2020</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12850,7 +12881,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12887,14 +12918,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49758-2020</t>
+          <t>A 49760-2020</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12912,7 +12943,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12949,14 +12980,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 51495-2020</t>
+          <t>A 49758-2020</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44113</v>
+        <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12974,7 +13005,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -13011,14 +13042,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54347-2020</t>
+          <t>A 51495-2020</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44126</v>
+        <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13030,8 +13061,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -13068,14 +13104,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57071-2020</t>
+          <t>A 54347-2020</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44138</v>
+        <v>44126</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13087,13 +13123,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -13130,14 +13161,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 57781-2020</t>
+          <t>A 57071-2020</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13149,8 +13180,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -13187,14 +13223,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 57779-2020</t>
+          <t>A 57781-2020</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13207,7 +13243,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -13244,14 +13280,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57936-2020</t>
+          <t>A 57779-2020</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13263,13 +13299,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -13306,14 +13337,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58111-2020</t>
+          <t>A 57936-2020</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44144</v>
+        <v>44141</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13325,8 +13356,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -13363,14 +13399,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59471-2020</t>
+          <t>A 58111-2020</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44148</v>
+        <v>44144</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13383,7 +13419,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -13420,14 +13456,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62412-2020</t>
+          <t>A 59471-2020</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44160</v>
+        <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13440,7 +13476,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -13477,14 +13513,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 62373-2020</t>
+          <t>A 62412-2020</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13497,7 +13533,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -13530,38 +13566,18 @@
         <v>0</v>
       </c>
       <c r="R189" s="2" t="inlineStr"/>
-      <c r="U189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62373-2020.png", "A 62373-2020")</f>
-        <v/>
-      </c>
-      <c r="V189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62373-2020.docx", "A 62373-2020")</f>
-        <v/>
-      </c>
-      <c r="W189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62373-2020.docx", "A 62373-2020")</f>
-        <v/>
-      </c>
-      <c r="X189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62373-2020.docx", "A 62373-2020")</f>
-        <v/>
-      </c>
-      <c r="Y189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62373-2020.docx", "A 62373-2020")</f>
-        <v/>
-      </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 66064-2020</t>
+          <t>A 62373-2020</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44175</v>
+        <v>44160</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13574,7 +13590,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>12</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13607,18 +13623,38 @@
         <v>0</v>
       </c>
       <c r="R190" s="2" t="inlineStr"/>
+      <c r="U190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 62373-2020.png", "A 62373-2020")</f>
+        <v/>
+      </c>
+      <c r="V190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 62373-2020.docx", "A 62373-2020")</f>
+        <v/>
+      </c>
+      <c r="W190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 62373-2020.docx", "A 62373-2020")</f>
+        <v/>
+      </c>
+      <c r="X190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 62373-2020.docx", "A 62373-2020")</f>
+        <v/>
+      </c>
+      <c r="Y190">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 62373-2020.docx", "A 62373-2020")</f>
+        <v/>
+      </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 67062-2020</t>
+          <t>A 66064-2020</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44180</v>
+        <v>44175</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13631,7 +13667,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13668,14 +13704,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 653-2021</t>
+          <t>A 67062-2020</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44203</v>
+        <v>44180</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13688,7 +13724,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13725,14 +13761,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1916-2021</t>
+          <t>A 653-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44210</v>
+        <v>44203</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13745,7 +13781,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13782,14 +13818,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1973-2021</t>
+          <t>A 1916-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13802,7 +13838,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13839,14 +13875,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3314-2021</t>
+          <t>A 1973-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13896,14 +13932,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6185-2021</t>
+          <t>A 3314-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44233</v>
+        <v>44217</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13916,7 +13952,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13953,14 +13989,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 6441-2021</t>
+          <t>A 6185-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13973,7 +14009,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -14010,14 +14046,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 9959-2021</t>
+          <t>A 6441-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44253</v>
+        <v>44235</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14030,7 +14066,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -14067,14 +14103,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15125-2021</t>
+          <t>A 9959-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44283</v>
+        <v>44253</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14087,7 +14123,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -14124,14 +14160,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17464-2021</t>
+          <t>A 15125-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44299</v>
+        <v>44283</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14144,7 +14180,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -14181,14 +14217,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 21171-2021</t>
+          <t>A 17464-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14201,7 +14237,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -14238,14 +14274,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21408-2021</t>
+          <t>A 21171-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14258,7 +14294,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -14295,14 +14331,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28067-2021</t>
+          <t>A 21408-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44355</v>
+        <v>44321</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14314,13 +14350,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -14357,14 +14388,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 29123-2021</t>
+          <t>A 28067-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14376,8 +14407,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -14414,14 +14450,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 41047-2021</t>
+          <t>A 29123-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44421</v>
+        <v>44358</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14433,13 +14469,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -14472,38 +14503,18 @@
         <v>0</v>
       </c>
       <c r="R205" s="2" t="inlineStr"/>
-      <c r="U205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 41047-2021.png", "A 41047-2021")</f>
-        <v/>
-      </c>
-      <c r="V205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41047-2021.docx", "A 41047-2021")</f>
-        <v/>
-      </c>
-      <c r="W205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41047-2021.docx", "A 41047-2021")</f>
-        <v/>
-      </c>
-      <c r="X205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41047-2021.docx", "A 41047-2021")</f>
-        <v/>
-      </c>
-      <c r="Y205">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41047-2021.docx", "A 41047-2021")</f>
-        <v/>
-      </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 40930-2021</t>
+          <t>A 41047-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14515,8 +14526,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -14549,18 +14565,38 @@
         <v>0</v>
       </c>
       <c r="R206" s="2" t="inlineStr"/>
+      <c r="U206">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/knärot/A 41047-2021.png", "A 41047-2021")</f>
+        <v/>
+      </c>
+      <c r="V206">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomål/A 41047-2021.docx", "A 41047-2021")</f>
+        <v/>
+      </c>
+      <c r="W206">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/klagomålsmail/A 41047-2021.docx", "A 41047-2021")</f>
+        <v/>
+      </c>
+      <c r="X206">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsyn/A 41047-2021.docx", "A 41047-2021")</f>
+        <v/>
+      </c>
+      <c r="Y206">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEDEMORA/tillsynsmail/A 41047-2021.docx", "A 41047-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 44065-2021</t>
+          <t>A 40930-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14572,13 +14608,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14615,14 +14646,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 46235-2021</t>
+          <t>A 44065-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44442</v>
+        <v>44434</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14634,8 +14665,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>2.5</v>
+        <v>9.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14672,14 +14708,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 49636-2021</t>
+          <t>A 46235-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44455</v>
+        <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14692,7 +14728,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14729,14 +14765,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 50441-2021</t>
+          <t>A 49636-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14748,13 +14784,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14791,14 +14822,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 52221-2021</t>
+          <t>A 50441-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44462</v>
+        <v>44456</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14816,7 +14847,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14853,14 +14884,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52215-2021</t>
+          <t>A 52221-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14878,7 +14909,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14915,14 +14946,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52199-2021</t>
+          <t>A 52215-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14940,7 +14971,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14977,14 +15008,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 53443-2021</t>
+          <t>A 52199-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44468</v>
+        <v>44462</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14998,11 +15029,11 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -15039,14 +15070,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 57117-2021</t>
+          <t>A 53443-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44482</v>
+        <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15060,11 +15091,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>14.3</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -15101,14 +15132,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 60418-2021</t>
+          <t>A 57117-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44495</v>
+        <v>44482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15120,8 +15151,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>14.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -15158,14 +15194,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61533-2021</t>
+          <t>A 60418-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44501</v>
+        <v>44495</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15178,7 +15214,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -15215,14 +15251,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62305-2021</t>
+          <t>A 61533-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15234,13 +15270,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -15277,14 +15308,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 64473-2021</t>
+          <t>A 62305-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44511</v>
+        <v>44502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15296,8 +15327,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -15334,14 +15370,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 68457-2021</t>
+          <t>A 64473-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44529</v>
+        <v>44511</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15354,7 +15390,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -15391,14 +15427,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 68553-2021</t>
+          <t>A 68457-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15411,7 +15447,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -15448,14 +15484,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 73099-2021</t>
+          <t>A 68553-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44546</v>
+        <v>44529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15468,7 +15504,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -15505,14 +15541,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 295-2022</t>
+          <t>A 73099-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44565</v>
+        <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15525,7 +15561,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -15562,14 +15598,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1666-2022</t>
+          <t>A 295-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15581,13 +15617,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15624,14 +15655,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 1917-2022</t>
+          <t>A 1666-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15645,11 +15676,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15686,14 +15717,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 1973-2022</t>
+          <t>A 1917-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15705,8 +15736,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15743,14 +15779,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4030-2022</t>
+          <t>A 1973-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15762,13 +15798,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15805,14 +15836,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 11046-2022</t>
+          <t>A 4030-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44628</v>
+        <v>44588</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15826,11 +15857,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15867,14 +15898,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 16122-2022</t>
+          <t>A 11046-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44665</v>
+        <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15888,11 +15919,11 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15929,14 +15960,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 22970-2022</t>
+          <t>A 16122-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44716</v>
+        <v>44665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15954,7 +15985,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15991,14 +16022,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 23329-2022</t>
+          <t>A 22970-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16010,8 +16041,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -16048,14 +16084,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 23839-2022</t>
+          <t>A 23329-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16067,13 +16103,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -16110,14 +16141,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 23843-2022</t>
+          <t>A 23839-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16135,7 +16166,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -16172,14 +16203,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 24427-2022</t>
+          <t>A 23843-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44726</v>
+        <v>44722</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16191,8 +16222,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -16229,14 +16265,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 24706-2022</t>
+          <t>A 24427-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44727</v>
+        <v>44726</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16249,7 +16285,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>25.4</v>
+        <v>1.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -16286,14 +16322,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 25567-2022</t>
+          <t>A 24706-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44732</v>
+        <v>44727</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16305,13 +16341,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>25.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -16348,14 +16379,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 25577-2022</t>
+          <t>A 25567-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16373,7 +16404,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -16410,14 +16441,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 25754-2022</t>
+          <t>A 25577-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16472,14 +16503,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 25692-2022</t>
+          <t>A 25754-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16497,7 +16528,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>22.3</v>
+        <v>4.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -16534,14 +16565,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 25691-2022</t>
+          <t>A 25692-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16553,8 +16584,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>22.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -16591,14 +16627,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 28105-2022</t>
+          <t>A 25691-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44746</v>
+        <v>44733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16611,7 +16647,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -16648,14 +16684,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 30592-2022</t>
+          <t>A 28105-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44762</v>
+        <v>44746</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16705,14 +16741,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 34409-2022</t>
+          <t>A 30592-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44792</v>
+        <v>44762</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16725,7 +16761,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>13.7</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16762,14 +16798,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 35806-2022</t>
+          <t>A 34409-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44802</v>
+        <v>44792</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16782,7 +16818,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>13.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16819,14 +16855,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 36865-2022</t>
+          <t>A 35806-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44805</v>
+        <v>44802</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16839,7 +16875,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16876,14 +16912,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 39506-2022</t>
+          <t>A 36865-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44817</v>
+        <v>44805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16895,13 +16931,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16938,14 +16969,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 39497-2022</t>
+          <t>A 39506-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16963,7 +16994,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -17000,14 +17031,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 39511-2022</t>
+          <t>A 39497-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17025,7 +17056,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -17062,14 +17093,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 40025-2022</t>
+          <t>A 39511-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44820</v>
+        <v>44817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17083,11 +17114,11 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -17124,14 +17155,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 45276-2022</t>
+          <t>A 40025-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44844</v>
+        <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17149,7 +17180,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>13.7</v>
+        <v>8.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -17186,14 +17217,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 48639-2022</t>
+          <t>A 45276-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44859</v>
+        <v>44844</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17211,7 +17242,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.2</v>
+        <v>13.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -17248,14 +17279,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 49160-2022</t>
+          <t>A 48639-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44860</v>
+        <v>44859</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17273,7 +17304,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -17310,14 +17341,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 49889-2022</t>
+          <t>A 49160-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44864</v>
+        <v>44860</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17335,7 +17366,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -17372,14 +17403,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 51520-2022</t>
+          <t>A 49889-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44869</v>
+        <v>44864</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17397,7 +17428,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -17434,14 +17465,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 52822-2022</t>
+          <t>A 51520-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44875</v>
+        <v>44869</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17459,7 +17490,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -17496,14 +17527,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 54197-2022</t>
+          <t>A 52822-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44881</v>
+        <v>44875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17521,7 +17552,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -17558,14 +17589,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 55143-2022</t>
+          <t>A 54197-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44886</v>
+        <v>44881</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17583,7 +17614,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -17620,14 +17651,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 55142-2022</t>
+          <t>A 55143-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17645,7 +17676,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -17682,14 +17713,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 58005-2022</t>
+          <t>A 55142-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44900</v>
+        <v>44886</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17701,8 +17732,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -17739,14 +17775,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 59088-2022</t>
+          <t>A 58005-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44904</v>
+        <v>44900</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17796,14 +17832,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 61849-2022</t>
+          <t>A 59088-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44917</v>
+        <v>44904</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17816,7 +17852,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -17853,14 +17889,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 566-2023</t>
+          <t>A 61849-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44925</v>
+        <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17873,7 +17909,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>13.7</v>
+        <v>1.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -17910,14 +17946,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 2996-2023</t>
+          <t>A 566-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44945</v>
+        <v>44925</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17930,7 +17966,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.1</v>
+        <v>13.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17967,14 +18003,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 5010-2023</t>
+          <t>A 2996-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44956</v>
+        <v>44945</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17986,13 +18022,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -18029,14 +18060,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 6556-2023</t>
+          <t>A 5010-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44961</v>
+        <v>44956</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18048,8 +18079,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -18086,14 +18122,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 6806-2023</t>
+          <t>A 6556-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44967</v>
+        <v>44961</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18106,7 +18142,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -18143,14 +18179,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 8715-2023</t>
+          <t>A 6806-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44978</v>
+        <v>44967</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18163,7 +18199,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -18200,14 +18236,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 9918-2023</t>
+          <t>A 8715-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18220,7 +18256,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -18257,14 +18293,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 9972-2023</t>
+          <t>A 9918-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18277,7 +18313,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -18314,14 +18350,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 12259-2023</t>
+          <t>A 9972-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44998</v>
+        <v>44985</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18333,13 +18369,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -18376,14 +18407,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13596-2023</t>
+          <t>A 12259-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45005</v>
+        <v>44998</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18395,8 +18426,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -18433,14 +18469,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14123-2023</t>
+          <t>A 13596-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18453,7 +18489,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -18490,14 +18526,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 14593-2023</t>
+          <t>A 14123-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45013</v>
+        <v>45008</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18510,7 +18546,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -18547,14 +18583,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 15863-2023</t>
+          <t>A 14593-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45022</v>
+        <v>45013</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18566,13 +18602,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>4.7</v>
+        <v>8.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -18609,14 +18640,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 15858-2023</t>
+          <t>A 15863-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18634,7 +18665,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -18671,14 +18702,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 16490-2023</t>
+          <t>A 15858-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45029</v>
+        <v>45022</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18690,8 +18721,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -18728,14 +18764,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 20153-2023</t>
+          <t>A 16490-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45055</v>
+        <v>45029</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18748,7 +18784,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -18785,14 +18821,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 20237-2023</t>
+          <t>A 20153-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18804,13 +18840,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -18847,14 +18878,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 20239-2023</t>
+          <t>A 20237-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18872,7 +18903,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -18909,14 +18940,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 20233-2023</t>
+          <t>A 20239-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18934,7 +18965,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18971,14 +19002,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 21096-2023</t>
+          <t>A 20233-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45061</v>
+        <v>45055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18992,11 +19023,11 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>9.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -19033,14 +19064,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 21092-2023</t>
+          <t>A 21096-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19058,7 +19089,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -19095,14 +19126,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 21093-2023</t>
+          <t>A 21092-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19120,7 +19151,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -19157,14 +19188,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 22273-2023</t>
+          <t>A 21093-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45070</v>
+        <v>45061</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19176,8 +19207,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -19214,14 +19250,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 22726-2023</t>
+          <t>A 22273-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45071</v>
+        <v>45070</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19234,7 +19270,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -19271,14 +19307,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 24569-2023</t>
+          <t>A 22726-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45083</v>
+        <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19290,13 +19326,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>34.6</v>
+        <v>0.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -19333,14 +19364,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 24864-2023</t>
+          <t>A 24569-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45085</v>
+        <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19352,8 +19383,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>13.2</v>
+        <v>34.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -19390,14 +19426,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 25150-2023</t>
+          <t>A 24864-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19409,13 +19445,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>1.6</v>
+        <v>13.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -19452,14 +19483,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 25155-2023</t>
+          <t>A 25150-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19477,7 +19508,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -19514,14 +19545,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 27695-2023</t>
+          <t>A 25155-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45097</v>
+        <v>45086</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19539,7 +19570,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -19576,14 +19607,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 27696-2023</t>
+          <t>A 27695-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19601,7 +19632,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -19638,14 +19669,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 28029-2023</t>
+          <t>A 27696-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45099</v>
+        <v>45097</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19657,8 +19688,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G292" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -19695,14 +19731,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 29050-2023</t>
+          <t>A 28029-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19714,13 +19750,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G293" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -19757,14 +19788,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 29303-2023</t>
+          <t>A 29050-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19782,7 +19813,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -19819,14 +19850,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 29301-2023</t>
+          <t>A 29303-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19881,14 +19912,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 30014-2023</t>
+          <t>A 29301-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45109</v>
+        <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19906,7 +19937,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -19943,14 +19974,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 30013-2023</t>
+          <t>A 30014-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19968,7 +19999,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -20005,14 +20036,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 31103-2023</t>
+          <t>A 30013-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45113</v>
+        <v>45109</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20024,8 +20055,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -20062,14 +20098,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 31253-2023</t>
+          <t>A 31103-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45114</v>
+        <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20119,14 +20155,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 33469-2023</t>
+          <t>A 31253-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45118</v>
+        <v>45114</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20138,13 +20174,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G300" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -20181,14 +20212,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 33475-2023</t>
+          <t>A 33469-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20206,7 +20237,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -20243,14 +20274,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 33775-2023</t>
+          <t>A 33475-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45120</v>
+        <v>45118</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20262,8 +20293,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G302" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -20300,14 +20336,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 32719-2023</t>
+          <t>A 33775-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45121</v>
+        <v>45120</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20319,13 +20355,8 @@
           <t>HEDEMORA</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G303" t="n">
-        <v>10.2</v>
+        <v>3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -20362,14 +20393,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 33313-2023</t>
+          <t>A 32719-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45127</v>
+        <v>45121</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20383,11 +20414,11 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -20424,14 +20455,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 33315-2023</t>
+          <t>A 33313-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20449,7 +20480,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -20486,14 +20517,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 33314-2023</t>
+          <t>A 33315-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20511,7 +20542,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -20548,14 +20579,14 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 37654-2023</t>
+          <t>A 33314-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45159</v>
+        <v>45127</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20567,8 +20598,13 @@
           <t>HEDEMORA</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44302</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44179</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44126</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44551</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44495</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43451</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43536</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45159</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43374</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43376</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43464</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43472</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43504</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43507</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43508</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43594</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43627</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43635</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43654</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43665</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43720</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43780</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43781</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43802</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43850</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43851</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43860</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43864</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43867</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43871</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43881</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>43906</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43907</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43910</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43924</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43935</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43949</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43955</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43956</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43968</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43971</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43983</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43991</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44018</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44046</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44078</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44083</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44085</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44126</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44138</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44141</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44144</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44160</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44175</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44180</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44203</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44210</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44217</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44233</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44235</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44253</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44283</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44320</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44321</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44358</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44421</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44434</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44456</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44462</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44495</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44511</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44565</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44574</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44588</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44716</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>44720</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44722</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44726</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44727</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44732</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>44746</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44762</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44792</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44802</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44844</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44859</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44860</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44864</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44869</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44881</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44886</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44900</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44904</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>44925</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44945</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44956</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44961</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44967</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44978</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44985</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44998</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45008</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45013</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45022</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45029</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45061</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45070</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45085</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45086</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45097</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45099</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45104</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45109</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45114</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45118</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45120</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45121</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45127</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44302</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44179</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44126</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44551</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44495</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43451</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43536</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45159</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43374</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43376</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43464</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43472</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43504</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43507</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43508</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43594</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43627</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43635</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43654</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43665</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43720</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43780</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43781</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43802</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43850</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43851</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43860</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43864</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43867</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43871</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43881</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>43906</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43907</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43910</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43924</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43935</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43949</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43955</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43956</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43968</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43971</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43983</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43991</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44018</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44046</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44078</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44083</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44085</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44126</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44138</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44141</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44144</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44160</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44175</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44180</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44203</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44210</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44217</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44233</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44235</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44253</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44283</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44320</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44321</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44358</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44421</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44434</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44456</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44462</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44495</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44511</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44565</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44574</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44588</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44716</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>44720</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44722</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44726</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44727</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44732</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>44746</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44762</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44792</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44802</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44844</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44859</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44860</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44864</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44869</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44881</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44886</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44900</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44904</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>44925</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44945</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44956</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44961</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44967</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44978</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44985</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44998</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45008</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45013</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45022</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45029</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45061</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45070</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45085</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45086</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45097</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45099</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45104</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45109</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45114</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45118</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45120</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45121</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45127</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44302</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44179</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44126</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44551</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44495</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43451</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43536</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45159</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43374</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43376</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43464</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43472</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43504</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43507</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43508</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43594</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43627</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43635</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43654</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43665</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43720</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43780</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43781</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43802</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43850</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43851</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43860</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43864</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43867</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43871</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43881</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>43906</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43907</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43910</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43924</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43935</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43949</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43955</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43956</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43968</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43971</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43983</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43991</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44018</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44046</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44078</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44083</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44085</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44126</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44138</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44141</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44144</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44160</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44175</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44180</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44203</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44210</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44217</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44233</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44235</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44253</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44283</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44320</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44321</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44358</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44421</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44434</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44456</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44462</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44495</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44511</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44565</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44574</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44588</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44716</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>44720</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44722</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44726</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44727</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44732</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>44746</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44762</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44792</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44802</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44844</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44859</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44860</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44864</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44869</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44881</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44886</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44900</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44904</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>44925</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44945</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44956</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44961</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44967</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44978</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44985</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44998</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45008</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45013</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45022</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45029</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45061</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45070</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45085</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45086</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45097</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45099</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45104</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45109</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45114</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45118</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45120</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45121</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45127</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt HEDEMORA.xlsx
+++ b/Översikt HEDEMORA.xlsx
@@ -572,7 +572,7 @@
         <v>43879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>44302</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>43698</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>44455</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44502</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44179</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>44902</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44126</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44551</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44369</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>44495</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43451</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>43536</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>44455</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44489</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44897</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44130</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>44359</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>44379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44502</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44579</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44588</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>43486</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>43731</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>43873</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44379</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>44588</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>44994</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>45008</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45008</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>43445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43879</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>44106</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>44106</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44106</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         <v>44461</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44857</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>44886</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44994</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>45057</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>45078</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45099</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>45125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45146</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45159</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43374</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43376</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>43384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>43432</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>43433</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>43433</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43440</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>43455</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43455</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43464</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43472</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43504</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43507</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43508</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43523</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43563</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43587</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43594</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43595</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>43609</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43609</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43616</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43620</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43627</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43635</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43654</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43665</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43698</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43720</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43720</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43725</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>43731</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>43734</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>43741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         <v>43748</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>43780</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43781</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43791</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>43802</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43802</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43840</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43850</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43850</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43851</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43860</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43864</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43864</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>43864</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>43867</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>43867</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43871</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43871</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43874</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43879</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>43879</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>43881</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>43886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>43894</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>43906</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43907</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43908</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43910</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43924</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43935</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43935</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43949</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43955</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43955</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43956</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43962</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43968</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43968</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43971</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43983</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43983</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43991</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43991</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>44006</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>44013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44018</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44046</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44070</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44070</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44078</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44083</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44083</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44085</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44093</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44093</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44093</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>44106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44126</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44138</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44141</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44141</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44141</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44144</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>44148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44160</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44160</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>44175</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>44180</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44203</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>44210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44210</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>44217</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44233</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>44235</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>44253</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44283</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44320</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44321</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>44358</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>44421</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44421</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44434</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>44455</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44456</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>44462</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>44462</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44462</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44495</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44501</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44502</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44511</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44529</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44529</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44546</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44565</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44574</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44588</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>44716</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>44720</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44722</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44722</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44726</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>44727</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44732</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44732</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44732</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44732</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>44733</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>44746</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44762</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44792</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44802</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44805</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44817</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>44817</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44817</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44844</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44859</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>44860</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>44864</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>44869</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>44881</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>44886</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44886</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44900</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44904</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>44917</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>44925</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>44945</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>44956</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44961</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44967</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44978</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44985</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44985</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44998</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45008</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45013</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45022</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45022</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45029</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45055</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>45055</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45055</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45055</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45061</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45061</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45061</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45070</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45071</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45085</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45086</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45086</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45097</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45097</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45099</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45104</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>45105</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19919,7 +19919,7 @@
         <v>45105</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45109</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45109</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45114</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45118</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45118</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>45120</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45121</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45127</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>45127</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45127</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
